--- a/microgrid_base/type_utils_resources/设备接口.xlsx
+++ b/microgrid_base/type_utils_resources/设备接口.xlsx
@@ -3882,7 +3882,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I22" s="82"/>
     </row>
@@ -3899,7 +3899,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
         <v>37</v>

--- a/microgrid_base/type_utils_resources/设备接口.xlsx
+++ b/microgrid_base/type_utils_resources/设备接口.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="598">
   <si>
     <t>设计规划</t>
   </si>
@@ -265,6 +265,9 @@
     <t>燃气发电机消耗天然气发电</t>
   </si>
   <si>
+    <t>可选连接: 缸套水余热接口; 高温烟气余热接口</t>
+  </si>
+  <si>
     <t>连接变流器</t>
   </si>
   <si>
@@ -307,6 +310,9 @@
     <t>消耗氢气发电</t>
   </si>
   <si>
+    <t>可选连接: 设备余热接口</t>
+  </si>
+  <si>
     <t>电接口 出 -&gt; 氢气接口 进; 设备余热接口 出</t>
   </si>
   <si>
@@ -418,6 +424,9 @@
     <t>连接冷源元件</t>
   </si>
   <si>
+    <t>可选连接: 蓄热接口; 蓄冷接口</t>
+  </si>
+  <si>
     <t>连接热源元件</t>
   </si>
   <si>
@@ -454,6 +463,12 @@
     <t>中深层双源四工况热泵</t>
   </si>
   <si>
+    <t>可选连接: 蓄热接口; 蓄冷接口; 冷源接口</t>
+  </si>
+  <si>
+    <t>关联连接: 制冷接口; 冷源接口</t>
+  </si>
+  <si>
     <t>浅层双源三工况热泵</t>
   </si>
   <si>
@@ -493,6 +508,9 @@
     <t>互斥: 制冷接口 出; 蓄冷接口 出</t>
   </si>
   <si>
+    <t>可选连接: 蓄冷接口</t>
+  </si>
+  <si>
     <t>双工况水冷螺杆机组</t>
   </si>
   <si>
@@ -514,6 +532,9 @@
     <t>制冷接口 出 -&gt; 电接口 进</t>
   </si>
   <si>
+    <t>可选连接: 蓄冷接口; 蓄热接口</t>
+  </si>
+  <si>
     <t>蓄冷接口 出 -&gt; 电接口 进</t>
   </si>
   <si>
@@ -602,6 +623,9 @@
   </si>
   <si>
     <t>连接热泵类设备的蓄冷接口</t>
+  </si>
+  <si>
+    <t>至少连接[1]: 蓄热接口; 蓄冷接口</t>
   </si>
   <si>
     <t>蓄冰槽</t>
@@ -4354,7 +4378,7 @@
     <col min="5" max="5" width="22.5233644859813" customWidth="1"/>
     <col min="6" max="6" width="17.803738317757" customWidth="1"/>
     <col min="8" max="8" width="28.5981308411215" customWidth="1"/>
-    <col min="9" max="9" width="39.6542056074766" customWidth="1"/>
+    <col min="9" max="9" width="58.9439252336449" customWidth="1"/>
     <col min="10" max="10" width="31.5607476635514" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4622,7 +4646,7 @@
       </c>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" ht="14.3" spans="1:7">
+    <row r="27" ht="14.3" spans="1:10">
       <c r="A27" s="23"/>
       <c r="B27" s="31" t="s">
         <v>10</v>
@@ -4635,6 +4659,9 @@
       </c>
       <c r="G27" t="s">
         <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="14.3" spans="1:9">
@@ -4643,7 +4670,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -4652,34 +4679,34 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" ht="14.3" spans="1:9">
       <c r="A29" s="23"/>
       <c r="B29" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="14.3" spans="1:9">
       <c r="A30" s="23"/>
       <c r="B30" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
         <v>74</v>
@@ -4691,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="14.3" spans="1:3">
@@ -4702,7 +4729,7 @@
     <row r="32" ht="14.3" spans="1:3">
       <c r="A32" s="23"/>
       <c r="B32" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32" s="24"/>
     </row>
@@ -4712,7 +4739,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
         <v>77</v>
@@ -4727,7 +4754,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -4736,7 +4763,7 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" ht="14" spans="1:3">
@@ -4747,23 +4774,26 @@
     <row r="36" ht="14.3" spans="1:3">
       <c r="A36" s="23"/>
       <c r="B36" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" s="23"/>
     </row>
-    <row r="37" ht="14.3" spans="1:7">
+    <row r="37" ht="14.3" spans="1:10">
       <c r="A37" s="23"/>
       <c r="B37" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
         <v>67</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="38" ht="14.3" spans="1:9">
@@ -4772,7 +4802,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -4781,16 +4811,16 @@
         <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" ht="14.3" spans="1:9">
       <c r="A39" s="23"/>
       <c r="B39" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
         <v>74</v>
@@ -4802,7 +4832,7 @@
         <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" ht="14" spans="1:3">
@@ -4812,20 +4842,20 @@
     </row>
     <row r="41" ht="14.3" spans="1:3">
       <c r="A41" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C41" s="23"/>
     </row>
     <row r="42" ht="14.3" spans="1:7">
       <c r="A42" s="23"/>
       <c r="B42" s="31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
@@ -4845,20 +4875,20 @@
     <row r="44" ht="14.3" spans="1:3">
       <c r="A44" s="23"/>
       <c r="B44" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C44" s="23"/>
     </row>
     <row r="45" ht="14.3" spans="1:7">
       <c r="A45" s="23"/>
       <c r="B45" s="31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -4871,20 +4901,20 @@
     <row r="47" ht="14.3" spans="1:3">
       <c r="A47" s="23"/>
       <c r="B47" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C47" s="23"/>
     </row>
     <row r="48" ht="14.3" spans="1:7">
       <c r="A48" s="23"/>
       <c r="B48" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -4893,10 +4923,10 @@
     <row r="49" ht="14.3" spans="1:11">
       <c r="A49" s="23"/>
       <c r="B49" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
         <v>74</v>
@@ -4908,7 +4938,7 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J49" s="35"/>
       <c r="K49" s="35"/>
@@ -4921,20 +4951,20 @@
     <row r="51" ht="14.3" spans="1:3">
       <c r="A51" s="23"/>
       <c r="B51" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C51" s="23"/>
     </row>
     <row r="52" ht="14.3" spans="1:7">
       <c r="A52" s="23"/>
       <c r="B52" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -4946,7 +4976,7 @@
         <v>76</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F53" t="s">
         <v>77</v>
@@ -4955,7 +4985,7 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" ht="14" spans="1:3">
@@ -4966,7 +4996,7 @@
     <row r="55" ht="14.3" spans="1:3">
       <c r="A55" s="23"/>
       <c r="B55" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C55" s="23"/>
     </row>
@@ -4976,7 +5006,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -4985,10 +5015,10 @@
         <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" ht="14.3" spans="1:9">
@@ -4997,7 +5027,7 @@
         <v>70</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
         <v>71</v>
@@ -5009,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" ht="14.3" spans="1:7">
@@ -5018,7 +5048,7 @@
         <v>73</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
         <v>74</v>
@@ -5038,7 +5068,7 @@
     <row r="60" ht="14.3" spans="1:3">
       <c r="A60" s="23"/>
       <c r="B60" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C60" s="23"/>
     </row>
@@ -5048,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -5057,7 +5087,7 @@
         <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J61" s="35"/>
     </row>
@@ -5067,7 +5097,7 @@
         <v>73</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
         <v>74</v>
@@ -5087,7 +5117,7 @@
     <row r="64" ht="14.3" spans="1:3">
       <c r="A64" s="23"/>
       <c r="B64" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C64" s="23"/>
     </row>
@@ -5097,7 +5127,7 @@
         <v>15</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E65" s="35"/>
       <c r="F65" t="s">
@@ -5108,7 +5138,7 @@
       </c>
       <c r="H65" s="35"/>
       <c r="J65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" ht="14.3" spans="1:10">
@@ -5117,7 +5147,7 @@
         <v>70</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
         <v>71</v>
@@ -5130,7 +5160,7 @@
       </c>
       <c r="H66" s="35"/>
       <c r="I66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J66" s="35"/>
     </row>
@@ -5140,7 +5170,7 @@
         <v>73</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E67" t="s">
         <v>74</v>
@@ -5153,7 +5183,7 @@
       </c>
       <c r="H67" s="35"/>
       <c r="I67" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J67" s="35"/>
     </row>
@@ -5165,7 +5195,7 @@
     <row r="69" ht="14.3" spans="1:3">
       <c r="A69" s="23"/>
       <c r="B69" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C69" s="23"/>
     </row>
@@ -5175,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
@@ -5190,7 +5220,7 @@
         <v>60</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -5208,7 +5238,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" t="s">
         <v>71</v>
@@ -5220,7 +5250,7 @@
         <v>12</v>
       </c>
       <c r="I72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" ht="14" spans="1:3">
@@ -5230,7 +5260,7 @@
     </row>
     <row r="74" ht="14.3" spans="2:2">
       <c r="B74" s="26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:7">
@@ -5238,7 +5268,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" t="s">
         <v>74</v>
@@ -5256,7 +5286,7 @@
     </row>
     <row r="77" customHeight="1" spans="2:3">
       <c r="B77" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C77" s="77"/>
     </row>
@@ -5265,7 +5295,7 @@
         <v>15</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -5274,15 +5304,15 @@
         <v>17</v>
       </c>
       <c r="J78" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" ht="14.3" spans="2:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" ht="14.3" spans="2:10">
       <c r="B79" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E79" t="s">
         <v>71</v>
@@ -5294,13 +5324,16 @@
         <v>17</v>
       </c>
       <c r="I79" s="35"/>
+      <c r="J79" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="80" ht="14.3" spans="2:10">
       <c r="B80" s="78" t="s">
         <v>73</v>
       </c>
       <c r="C80" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E80" t="s">
         <v>74</v>
@@ -5316,10 +5349,10 @@
     </row>
     <row r="81" ht="14.3" spans="2:10">
       <c r="B81" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
         <v>71</v>
@@ -5331,16 +5364,16 @@
         <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J81" s="35"/>
     </row>
     <row r="82" ht="14.3" spans="2:9">
       <c r="B82" s="31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
         <v>71</v>
@@ -5352,15 +5385,15 @@
         <v>12</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" ht="14.3" spans="2:9">
       <c r="B83" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" t="s">
         <v>74</v>
@@ -5372,15 +5405,15 @@
         <v>12</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" ht="14.3" spans="2:9">
       <c r="B84" s="33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E84" t="s">
         <v>74</v>
@@ -5392,12 +5425,12 @@
         <v>12</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:3">
       <c r="B86" s="26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C86" s="77"/>
     </row>
@@ -5406,7 +5439,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E87" s="35"/>
       <c r="F87" t="s">
@@ -5417,15 +5450,15 @@
       </c>
       <c r="H87" s="35"/>
       <c r="J87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" ht="14.3" spans="2:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" ht="14.3" spans="2:10">
       <c r="B88" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E88" t="s">
         <v>71</v>
@@ -5437,13 +5470,16 @@
         <v>17</v>
       </c>
       <c r="H88" s="35"/>
-    </row>
-    <row r="89" ht="14.3" spans="2:8">
+      <c r="J88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" ht="14.3" spans="2:10">
       <c r="B89" s="78" t="s">
         <v>73</v>
       </c>
       <c r="C89" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E89" t="s">
         <v>74</v>
@@ -5455,13 +5491,16 @@
         <v>17</v>
       </c>
       <c r="H89" s="35"/>
+      <c r="J89" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="90" ht="14.3" spans="2:11">
       <c r="B90" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E90" t="s">
         <v>71</v>
@@ -5474,17 +5513,17 @@
       </c>
       <c r="H90" s="35"/>
       <c r="I90" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
     </row>
     <row r="91" ht="14.3" spans="2:11">
       <c r="B91" s="31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
         <v>71</v>
@@ -5497,17 +5536,17 @@
       </c>
       <c r="H91" s="35"/>
       <c r="I91" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
     </row>
     <row r="92" ht="14.3" spans="2:11">
       <c r="B92" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" t="s">
         <v>74</v>
@@ -5520,17 +5559,17 @@
       </c>
       <c r="H92" s="35"/>
       <c r="I92" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
     </row>
     <row r="93" ht="14.3" spans="2:11">
       <c r="B93" s="33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E93" t="s">
         <v>74</v>
@@ -5543,14 +5582,14 @@
       </c>
       <c r="H93" s="35"/>
       <c r="I93" s="21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
     </row>
     <row r="95" ht="14.3" spans="2:2">
       <c r="B95" s="26" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" ht="14.3" spans="2:11">
@@ -5558,7 +5597,7 @@
         <v>15</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E96" s="35"/>
       <c r="F96" t="s">
@@ -5568,7 +5607,7 @@
         <v>17</v>
       </c>
       <c r="J96" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K96" s="35"/>
     </row>
@@ -5577,7 +5616,7 @@
         <v>70</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E97" t="s">
         <v>71</v>
@@ -5596,7 +5635,7 @@
         <v>73</v>
       </c>
       <c r="C98" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E98" t="s">
         <v>74</v>
@@ -5612,62 +5651,62 @@
     </row>
     <row r="99" ht="14.3" spans="2:9">
       <c r="B99" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E99" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F99" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" ht="14.3" spans="2:9">
       <c r="B100" s="33" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F100" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G100" t="s">
         <v>12</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" ht="14.3" spans="2:9">
       <c r="B101" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" t="s">
+        <v>157</v>
+      </c>
+      <c r="F101" t="s">
         <v>152</v>
-      </c>
-      <c r="F101" t="s">
-        <v>147</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="2:9">
@@ -5676,7 +5715,7 @@
     </row>
     <row r="103" ht="14.3" spans="2:9">
       <c r="B103" s="26" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I103" s="35"/>
     </row>
@@ -5685,7 +5724,7 @@
         <v>15</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E104" s="35"/>
       <c r="F104" t="s">
@@ -5695,7 +5734,7 @@
         <v>17</v>
       </c>
       <c r="J104" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" ht="14.3" spans="2:9">
@@ -5703,7 +5742,7 @@
         <v>70</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E105" t="s">
         <v>71</v>
@@ -5721,7 +5760,7 @@
         <v>73</v>
       </c>
       <c r="C106" s="79" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E106" t="s">
         <v>74</v>
@@ -5736,62 +5775,62 @@
     </row>
     <row r="107" ht="14.3" spans="2:9">
       <c r="B107" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E107" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F107" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="2:9">
       <c r="B108" s="33" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F108" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G108" t="s">
         <v>12</v>
       </c>
       <c r="I108" s="21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="2:9">
       <c r="B109" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" t="s">
+        <v>157</v>
+      </c>
+      <c r="F109" t="s">
         <v>152</v>
-      </c>
-      <c r="F109" t="s">
-        <v>147</v>
       </c>
       <c r="G109" t="s">
         <v>12</v>
       </c>
       <c r="I109" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="2:2">
@@ -5799,7 +5838,7 @@
     </row>
     <row r="111" customHeight="1" spans="2:2">
       <c r="B111" s="26" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:10">
@@ -5807,7 +5846,7 @@
         <v>15</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E112" s="35"/>
       <c r="F112" t="s">
@@ -5817,15 +5856,15 @@
         <v>17</v>
       </c>
       <c r="J112" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="2:7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="2:10">
       <c r="B113" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E113" t="s">
         <v>71</v>
@@ -5836,13 +5875,16 @@
       <c r="G113" t="s">
         <v>17</v>
       </c>
+      <c r="J113" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="114" customHeight="1" spans="2:11">
       <c r="B114" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E114" t="s">
         <v>71</v>
@@ -5854,17 +5896,17 @@
         <v>12</v>
       </c>
       <c r="I114" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J114" s="35"/>
       <c r="K114" s="35"/>
     </row>
     <row r="115" customHeight="1" spans="2:11">
       <c r="B115" s="31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E115" t="s">
         <v>71</v>
@@ -5876,7 +5918,7 @@
         <v>12</v>
       </c>
       <c r="I115" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J115" s="35"/>
       <c r="K115" s="35"/>
@@ -5884,7 +5926,7 @@
     <row r="116" customHeight="1"/>
     <row r="117" customHeight="1" spans="2:5">
       <c r="B117" s="26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C117" s="77"/>
       <c r="E117" s="35"/>
@@ -5894,7 +5936,7 @@
         <v>15</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E118" s="35"/>
       <c r="F118" t="s">
@@ -5904,7 +5946,7 @@
         <v>17</v>
       </c>
       <c r="J118" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K118" s="35"/>
     </row>
@@ -5913,7 +5955,7 @@
         <v>70</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E119" t="s">
         <v>71</v>
@@ -5930,57 +5972,57 @@
     </row>
     <row r="120" customHeight="1" spans="2:11">
       <c r="B120" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E120" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F120" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G120" t="s">
         <v>12</v>
       </c>
       <c r="I120" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J120" s="35"/>
       <c r="K120" s="35"/>
     </row>
     <row r="121" customHeight="1" spans="2:11">
       <c r="B121" s="31" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E121" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F121" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
       </c>
       <c r="I121" s="21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J121" s="35"/>
       <c r="K121" s="35"/>
     </row>
     <row r="122" customHeight="1" spans="2:3">
       <c r="B122" s="74" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C122" s="77"/>
     </row>
     <row r="123" customHeight="1" spans="2:3">
       <c r="B123" s="26" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C123" s="77"/>
     </row>
@@ -6000,10 +6042,10 @@
     </row>
     <row r="125" customHeight="1" spans="2:9">
       <c r="B125" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E125" t="s">
         <v>74</v>
@@ -6015,7 +6057,7 @@
         <v>12</v>
       </c>
       <c r="I125" s="21" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:3">
@@ -6024,7 +6066,7 @@
     </row>
     <row r="127" customHeight="1" spans="2:3">
       <c r="B127" s="26" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C127" s="77"/>
     </row>
@@ -6033,7 +6075,7 @@
         <v>15</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
@@ -6042,16 +6084,16 @@
         <v>17</v>
       </c>
       <c r="J128" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K128" s="35"/>
     </row>
     <row r="129" ht="14.3" spans="2:11">
       <c r="B129" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E129" t="s">
         <v>71</v>
@@ -6063,17 +6105,19 @@
         <v>12</v>
       </c>
       <c r="I129" t="s">
-        <v>163</v>
-      </c>
-      <c r="J129" s="35"/>
+        <v>169</v>
+      </c>
+      <c r="J129" s="35" t="s">
+        <v>170</v>
+      </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" ht="14.3" spans="2:11">
       <c r="B130" s="31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E130" t="s">
         <v>71</v>
@@ -6085,17 +6129,17 @@
         <v>12</v>
       </c>
       <c r="I130" s="21" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J130" s="35"/>
       <c r="K130" s="35"/>
     </row>
     <row r="131" ht="14.3" spans="2:11">
       <c r="B131" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E131" t="s">
         <v>74</v>
@@ -6107,17 +6151,17 @@
         <v>12</v>
       </c>
       <c r="I131" s="21" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J131" s="35"/>
       <c r="K131" s="35"/>
     </row>
     <row r="132" ht="14.3" spans="2:11">
       <c r="B132" s="33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E132" t="s">
         <v>74</v>
@@ -6129,14 +6173,14 @@
         <v>12</v>
       </c>
       <c r="I132" s="21" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J132" s="35"/>
       <c r="K132" s="35"/>
     </row>
     <row r="134" ht="14.3" spans="2:2">
       <c r="B134" s="26" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" ht="14.3" spans="2:7">
@@ -6144,7 +6188,7 @@
         <v>76</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F135" t="s">
         <v>77</v>
@@ -6158,7 +6202,7 @@
         <v>70</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E136" t="s">
         <v>71</v>
@@ -6172,10 +6216,10 @@
     </row>
     <row r="137" ht="14.3" spans="2:9">
       <c r="B137" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E137" t="s">
         <v>71</v>
@@ -6187,20 +6231,20 @@
         <v>12</v>
       </c>
       <c r="I137" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" ht="14.3" spans="2:2">
       <c r="B139" s="26" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" ht="14.3" spans="2:7">
       <c r="B140" s="31" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E140" s="35" t="s">
         <v>74</v>
@@ -6217,7 +6261,7 @@
         <v>70</v>
       </c>
       <c r="C141" s="34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E141" t="s">
         <v>71</v>
@@ -6231,10 +6275,10 @@
     </row>
     <row r="142" ht="14.3" spans="2:9">
       <c r="B142" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E142" t="s">
         <v>71</v>
@@ -6246,12 +6290,12 @@
         <v>12</v>
       </c>
       <c r="I142" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" ht="14.3" spans="2:2">
       <c r="B144" s="26" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="145" ht="14.3" spans="2:7">
@@ -6259,7 +6303,7 @@
         <v>15</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
@@ -6270,10 +6314,10 @@
     </row>
     <row r="146" ht="14.3" spans="2:9">
       <c r="B146" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E146" t="s">
         <v>74</v>
@@ -6285,12 +6329,12 @@
         <v>12</v>
       </c>
       <c r="I146" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" ht="14.3" spans="2:2">
       <c r="B148" s="26" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" ht="14.3" spans="2:7">
@@ -6298,7 +6342,7 @@
         <v>15</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
@@ -6312,7 +6356,7 @@
         <v>76</v>
       </c>
       <c r="C150" s="34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F150" t="s">
         <v>77</v>
@@ -6321,12 +6365,12 @@
         <v>12</v>
       </c>
       <c r="I150" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152" ht="14.3" spans="2:2">
       <c r="B152" s="26" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="153" ht="14.3" spans="2:7">
@@ -6334,7 +6378,7 @@
         <v>10</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F153" t="s">
         <v>64</v>
@@ -6345,10 +6389,10 @@
     </row>
     <row r="154" ht="14.3" spans="2:9">
       <c r="B154" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E154" t="s">
         <v>74</v>
@@ -6360,12 +6404,12 @@
         <v>12</v>
       </c>
       <c r="I154" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" ht="14.3" spans="2:2">
       <c r="B156" s="26" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157" ht="14.3" spans="2:7">
@@ -6373,7 +6417,7 @@
         <v>10</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F157" t="s">
         <v>64</v>
@@ -6387,7 +6431,7 @@
         <v>76</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F158" t="s">
         <v>77</v>
@@ -6396,25 +6440,25 @@
         <v>12</v>
       </c>
       <c r="I158" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" ht="14.3" spans="1:3">
       <c r="A160" s="29" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C160" s="80"/>
     </row>
-    <row r="161" ht="14.3" spans="1:9">
+    <row r="161" ht="14.3" spans="1:10">
       <c r="A161" s="35"/>
       <c r="B161" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F161" t="s">
         <v>16</v>
@@ -6423,16 +6467,19 @@
         <v>17</v>
       </c>
       <c r="I161" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="J161" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="162" ht="14.3" spans="1:9">
       <c r="A162" s="35"/>
       <c r="B162" s="33" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F162" t="s">
         <v>67</v>
@@ -6441,15 +6488,15 @@
         <v>12</v>
       </c>
       <c r="I162" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" ht="14.3" spans="2:7">
       <c r="B163" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C163" s="34" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E163" t="s">
         <v>74</v>
@@ -6466,16 +6513,16 @@
         <v>28</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C166" s="80"/>
     </row>
     <row r="167" ht="14.3" spans="2:10">
       <c r="B167" s="31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E167" t="s">
         <v>74</v>
@@ -6487,18 +6534,18 @@
         <v>31</v>
       </c>
       <c r="H167" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J167" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="168" ht="14.3" spans="2:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" ht="14.3" spans="2:10">
       <c r="B168" s="33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E168" t="s">
         <v>71</v>
@@ -6510,47 +6557,50 @@
         <v>31</v>
       </c>
       <c r="H168" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="J168" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="170" ht="14.3" spans="2:3">
       <c r="B170" s="26" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C170" s="80"/>
     </row>
     <row r="171" ht="14.3" spans="2:8">
       <c r="B171" s="31" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E171" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F171" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G171" t="s">
         <v>31</v>
       </c>
       <c r="H171" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" ht="14.3" spans="2:3">
       <c r="B173" s="26" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C173" s="80"/>
     </row>
     <row r="174" ht="14.3" spans="2:8">
       <c r="B174" s="31" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F174" t="s">
         <v>67</v>
@@ -6559,15 +6609,15 @@
         <v>31</v>
       </c>
       <c r="H174" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" ht="14.3" spans="1:26">
       <c r="A176" s="29" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C176" s="80"/>
       <c r="D176" s="35"/>
@@ -6597,14 +6647,14 @@
     <row r="177" ht="14.3" spans="1:26">
       <c r="A177" s="35"/>
       <c r="B177" s="31" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="35" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F177" t="s">
         <v>63</v>
@@ -6613,10 +6663,10 @@
         <v>31</v>
       </c>
       <c r="I177" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="J177" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K177" s="35"/>
       <c r="L177" s="35"/>
@@ -6638,14 +6688,14 @@
     <row r="178" ht="14.3" spans="1:26">
       <c r="A178" s="35"/>
       <c r="B178" s="33" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="35" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F178" t="s">
         <v>63</v>
@@ -6654,10 +6704,10 @@
         <v>31</v>
       </c>
       <c r="I178" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="J178" s="35" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="K178" s="35"/>
       <c r="L178" s="35"/>
@@ -6681,7 +6731,7 @@
         <v>15</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F179" t="s">
         <v>16</v>
@@ -6700,7 +6750,7 @@
     </row>
     <row r="181" ht="14.3" spans="2:11">
       <c r="B181" s="26" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C181" s="80"/>
       <c r="D181" s="35"/>
@@ -6713,10 +6763,10 @@
     </row>
     <row r="182" ht="14.3" spans="2:11">
       <c r="B182" s="31" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="35"/>
@@ -6727,19 +6777,19 @@
         <v>31</v>
       </c>
       <c r="I182" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J182" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K182" s="35"/>
     </row>
     <row r="183" ht="14.3" spans="2:11">
       <c r="B183" s="33" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C183" s="34" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="35"/>
@@ -6750,7 +6800,7 @@
         <v>31</v>
       </c>
       <c r="I183" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J183" s="35"/>
       <c r="K183" s="35"/>
@@ -6762,7 +6812,7 @@
     </row>
     <row r="185" ht="14.3" spans="2:11">
       <c r="B185" s="26" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C185" s="80"/>
       <c r="I185" s="35"/>
@@ -6771,10 +6821,10 @@
     </row>
     <row r="186" ht="14.3" spans="2:11">
       <c r="B186" s="31" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E186" t="s">
         <v>71</v>
@@ -6786,19 +6836,19 @@
         <v>31</v>
       </c>
       <c r="I186" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J186" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K186" s="35"/>
     </row>
     <row r="187" ht="14.3" spans="2:11">
       <c r="B187" s="31" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E187" t="s">
         <v>74</v>
@@ -6810,17 +6860,17 @@
         <v>31</v>
       </c>
       <c r="I187" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="J187" s="35"/>
       <c r="K187" s="35"/>
     </row>
     <row r="188" ht="14.3" spans="2:11">
       <c r="B188" s="33" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E188" t="s">
         <v>71</v>
@@ -6832,17 +6882,17 @@
         <v>31</v>
       </c>
       <c r="I188" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J188" s="35"/>
       <c r="K188" s="35"/>
     </row>
     <row r="189" ht="14.3" spans="2:11">
       <c r="B189" s="33" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E189" t="s">
         <v>74</v>
@@ -6854,7 +6904,7 @@
         <v>31</v>
       </c>
       <c r="I189" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="J189" s="35"/>
       <c r="K189" s="35"/>
@@ -6864,7 +6914,7 @@
         <v>15</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F190" t="s">
         <v>16</v>
@@ -6882,7 +6932,7 @@
     </row>
     <row r="192" ht="14.3" spans="2:10">
       <c r="B192" s="26" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C192" s="80"/>
       <c r="I192" s="35"/>
@@ -6890,42 +6940,42 @@
     </row>
     <row r="193" ht="14.3" spans="2:10">
       <c r="B193" s="31" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F193" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G193" t="s">
         <v>31</v>
       </c>
       <c r="I193" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J193" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" ht="14.3" spans="2:10">
       <c r="B194" s="33" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C194" s="34" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F194" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G194" t="s">
         <v>31</v>
       </c>
       <c r="I194" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J194" s="35" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="2:10">
@@ -6936,7 +6986,7 @@
     </row>
     <row r="196" ht="14.3" spans="2:11">
       <c r="B196" s="26" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C196" s="80"/>
       <c r="I196" s="35"/>
@@ -6945,89 +6995,89 @@
     </row>
     <row r="197" ht="14.3" spans="2:11">
       <c r="B197" s="31" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E197" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F197" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G197" t="s">
         <v>31</v>
       </c>
       <c r="I197" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="J197" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K197" s="35"/>
     </row>
     <row r="198" ht="14.3" spans="2:11">
       <c r="B198" s="31" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E198" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F198" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G198" t="s">
         <v>31</v>
       </c>
       <c r="I198" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K198" s="35"/>
     </row>
     <row r="199" ht="14.3" spans="2:11">
       <c r="B199" s="33" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E199" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F199" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G199" t="s">
         <v>31</v>
       </c>
       <c r="I199" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J199" s="35"/>
       <c r="K199" s="35"/>
     </row>
     <row r="200" ht="14.3" spans="2:11">
       <c r="B200" s="33" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E200" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F200" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G200" t="s">
         <v>31</v>
       </c>
       <c r="I200" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J200" s="35"/>
       <c r="K200" s="35"/>
@@ -7039,7 +7089,7 @@
     </row>
     <row r="202" ht="14.3" spans="2:11">
       <c r="B202" s="26" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C202" s="80"/>
       <c r="I202" s="35"/>
@@ -7048,10 +7098,10 @@
     </row>
     <row r="203" ht="14.3" spans="2:11">
       <c r="B203" s="31" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F203" t="s">
         <v>77</v>
@@ -7065,10 +7115,10 @@
     </row>
     <row r="204" ht="14.3" spans="2:11">
       <c r="B204" s="33" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C204" s="34" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E204" t="s">
         <v>74</v>
@@ -7080,14 +7130,14 @@
         <v>12</v>
       </c>
       <c r="I204" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J204" s="35"/>
       <c r="K204" s="35"/>
     </row>
     <row r="206" spans="5:5">
       <c r="E206" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7130,7 +7180,7 @@
     <row r="2" ht="14.3" spans="1:4">
       <c r="A2" s="27"/>
       <c r="B2" s="51" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="27"/>
@@ -7138,7 +7188,7 @@
     <row r="3" ht="14.3" spans="1:4">
       <c r="A3" s="27"/>
       <c r="B3" s="51" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="27"/>
@@ -7146,7 +7196,7 @@
     <row r="4" ht="14.3" spans="1:4">
       <c r="A4" s="27"/>
       <c r="B4" s="51" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="27"/>
@@ -7154,7 +7204,7 @@
     <row r="5" ht="14.3" spans="1:4">
       <c r="A5" s="27"/>
       <c r="B5" s="51" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C5" s="52">
         <v>1.56</v>
@@ -7164,7 +7214,7 @@
     <row r="6" ht="14.3" spans="1:4">
       <c r="A6" s="27"/>
       <c r="B6" s="51" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C6" s="52">
         <v>25</v>
@@ -7174,7 +7224,7 @@
     <row r="7" ht="14.3" spans="1:4">
       <c r="A7" s="27"/>
       <c r="B7" s="51" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C7" s="53">
         <v>1.256</v>
@@ -7184,7 +7234,7 @@
     <row r="8" ht="14.3" spans="1:4">
       <c r="A8" s="27"/>
       <c r="B8" s="51" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="27"/>
@@ -7192,7 +7242,7 @@
     <row r="9" ht="14.3" spans="1:4">
       <c r="A9" s="27"/>
       <c r="B9" s="54" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="27"/>
@@ -7200,7 +7250,7 @@
     <row r="10" ht="14.3" spans="1:4">
       <c r="A10" s="27"/>
       <c r="B10" s="51" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="27"/>
@@ -7208,7 +7258,7 @@
     <row r="11" ht="14.3" spans="1:4">
       <c r="A11" s="27"/>
       <c r="B11" s="51" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C11" s="52">
         <v>560</v>
@@ -7218,7 +7268,7 @@
     <row r="12" ht="14.3" spans="1:4">
       <c r="A12" s="27"/>
       <c r="B12" s="52" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C12" s="52">
         <v>1.2</v>
@@ -7228,7 +7278,7 @@
     <row r="13" ht="14.3" spans="1:4">
       <c r="A13" s="27"/>
       <c r="B13" s="52" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C13" s="52">
         <v>0.2365</v>
@@ -7238,7 +7288,7 @@
     <row r="14" ht="14.3" spans="1:4">
       <c r="A14" s="27"/>
       <c r="B14" s="52" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C14" s="52">
         <v>25</v>
@@ -7248,7 +7298,7 @@
     <row r="15" ht="14.3" spans="1:4">
       <c r="A15" s="27"/>
       <c r="B15" s="52" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C15" s="52">
         <v>15</v>
@@ -7258,7 +7308,7 @@
     <row r="16" ht="14.3" spans="1:4">
       <c r="A16" s="27"/>
       <c r="B16" s="55" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C16" s="55">
         <v>10</v>
@@ -7268,7 +7318,7 @@
     <row r="17" ht="14.3" spans="1:4">
       <c r="A17" s="27"/>
       <c r="B17" s="52" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="27"/>
@@ -7281,25 +7331,25 @@
     </row>
     <row r="21" ht="14.3" spans="2:3">
       <c r="B21" s="51" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C21" s="51"/>
     </row>
     <row r="22" ht="14.3" spans="2:3">
       <c r="B22" s="51" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C22" s="51"/>
     </row>
     <row r="23" ht="14.3" spans="2:3">
       <c r="B23" s="56" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C23" s="56"/>
     </row>
     <row r="24" ht="14.3" spans="2:3">
       <c r="B24" s="51" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C24" s="52">
         <v>3000</v>
@@ -7307,7 +7357,7 @@
     </row>
     <row r="25" ht="14.3" spans="2:3">
       <c r="B25" s="51" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C25" s="52">
         <v>25</v>
@@ -7315,7 +7365,7 @@
     </row>
     <row r="26" ht="14.3" spans="2:3">
       <c r="B26" s="51" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C26" s="52">
         <v>1</v>
@@ -7323,7 +7373,7 @@
     </row>
     <row r="27" ht="14.3" spans="2:3">
       <c r="B27" s="56" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C27" s="55">
         <v>100</v>
@@ -7331,19 +7381,19 @@
     </row>
     <row r="28" ht="14.3" spans="2:3">
       <c r="B28" s="54" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C28" s="54"/>
     </row>
     <row r="29" ht="14.3" spans="2:3">
       <c r="B29" s="51" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C29" s="52"/>
     </row>
     <row r="30" ht="14.3" spans="2:3">
       <c r="B30" s="51" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C30" s="52">
         <v>560</v>
@@ -7351,7 +7401,7 @@
     </row>
     <row r="31" ht="14.3" spans="2:3">
       <c r="B31" s="52" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C31" s="52">
         <v>1.2</v>
@@ -7359,7 +7409,7 @@
     </row>
     <row r="32" ht="14.3" spans="2:3">
       <c r="B32" s="52" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C32" s="52">
         <v>0.2365</v>
@@ -7367,7 +7417,7 @@
     </row>
     <row r="33" ht="14.3" spans="2:3">
       <c r="B33" s="52" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C33" s="52">
         <v>25</v>
@@ -7375,7 +7425,7 @@
     </row>
     <row r="34" ht="14.3" spans="2:3">
       <c r="B34" s="52" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C34" s="52">
         <v>15</v>
@@ -7383,7 +7433,7 @@
     </row>
     <row r="35" ht="14.3" spans="2:3">
       <c r="B35" s="52" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C35" s="52">
         <v>10</v>
@@ -7391,7 +7441,7 @@
     </row>
     <row r="36" ht="14.3" spans="2:3">
       <c r="B36" s="52" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -7403,11 +7453,11 @@
     </row>
     <row r="41" ht="14.3" spans="2:8">
       <c r="B41" s="51" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C41" s="51"/>
       <c r="E41" s="57" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F41" s="58"/>
       <c r="G41" s="57"/>
@@ -7415,21 +7465,21 @@
     </row>
     <row r="42" ht="14.3" spans="2:8">
       <c r="B42" s="51" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C42" s="51"/>
       <c r="E42" s="59" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G42" s="59"/>
       <c r="H42" s="59"/>
     </row>
     <row r="43" ht="14.3" spans="2:8">
       <c r="B43" s="51" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C43" s="51"/>
       <c r="E43" s="60">
@@ -7443,7 +7493,7 @@
     </row>
     <row r="44" ht="14.3" spans="2:8">
       <c r="B44" s="51" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C44" s="52">
         <v>100</v>
@@ -7459,10 +7509,10 @@
     </row>
     <row r="45" ht="14.3" spans="2:8">
       <c r="B45" s="61" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E45" s="60">
         <v>0.6</v>
@@ -7475,7 +7525,7 @@
     </row>
     <row r="46" ht="14.3" spans="2:8">
       <c r="B46" s="51" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C46" s="52"/>
       <c r="E46" s="60">
@@ -7489,7 +7539,7 @@
     </row>
     <row r="47" ht="14.3" spans="2:8">
       <c r="B47" s="51" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C47" s="52"/>
       <c r="E47" s="60">
@@ -7503,27 +7553,27 @@
     </row>
     <row r="48" ht="14.3" spans="2:7">
       <c r="B48" s="51" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C48" s="52"/>
       <c r="E48" s="27" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G48" s="27"/>
     </row>
     <row r="49" ht="14.3" spans="2:7">
       <c r="B49" s="51" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C49" s="52"/>
       <c r="E49" s="27" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G49" s="27"/>
     </row>
     <row r="50" ht="14.3" spans="2:3">
       <c r="B50" s="51" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C50" s="52">
         <v>560</v>
@@ -7531,7 +7581,7 @@
     </row>
     <row r="51" ht="14.3" spans="2:3">
       <c r="B51" s="52" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C51" s="52">
         <v>1.2</v>
@@ -7539,7 +7589,7 @@
     </row>
     <row r="52" ht="14.3" spans="2:3">
       <c r="B52" s="52" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C52" s="52">
         <v>0.2365</v>
@@ -7547,7 +7597,7 @@
     </row>
     <row r="53" ht="14.3" spans="2:3">
       <c r="B53" s="52" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C53" s="52">
         <v>25</v>
@@ -7555,7 +7605,7 @@
     </row>
     <row r="54" ht="14.3" spans="2:3">
       <c r="B54" s="55" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C54" s="55">
         <v>15</v>
@@ -7563,7 +7613,7 @@
     </row>
     <row r="55" ht="14.3" spans="2:3">
       <c r="B55" s="52" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C55" s="52">
         <v>10</v>
@@ -7571,7 +7621,7 @@
     </row>
     <row r="56" ht="14.3" spans="2:3">
       <c r="B56" s="52" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C56" s="3"/>
     </row>
@@ -7586,25 +7636,25 @@
     </row>
     <row r="61" ht="14.3" spans="2:3">
       <c r="B61" s="51" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C61" s="51"/>
     </row>
     <row r="62" ht="14.3" spans="2:3">
       <c r="B62" s="51" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C62" s="51"/>
     </row>
     <row r="63" ht="14.3" spans="2:3">
       <c r="B63" s="51" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C63" s="51"/>
     </row>
     <row r="64" ht="14.3" spans="2:3">
       <c r="B64" s="51" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C64" s="52">
         <v>5000</v>
@@ -7612,7 +7662,7 @@
     </row>
     <row r="65" ht="14.3" spans="2:3">
       <c r="B65" s="51" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C65" s="52">
         <v>0.2</v>
@@ -7620,46 +7670,46 @@
     </row>
     <row r="66" ht="14.3" spans="2:3">
       <c r="B66" s="54" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C66" s="54"/>
     </row>
     <row r="67" ht="14.3" spans="2:3">
       <c r="B67" s="54" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C67" s="54"/>
     </row>
     <row r="68" ht="14.3" spans="2:3">
       <c r="B68" s="51" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C68" s="54"/>
     </row>
     <row r="69" ht="14.3" spans="2:4">
       <c r="B69" s="54" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C69" s="54"/>
       <c r="D69" s="64" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" ht="14.3" spans="2:3">
       <c r="B70" s="54" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C70" s="54"/>
     </row>
     <row r="71" ht="14.3" spans="2:3">
       <c r="B71" s="51" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C71" s="52"/>
     </row>
     <row r="72" ht="14.3" spans="2:3">
       <c r="B72" s="51" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C72" s="52">
         <v>560</v>
@@ -7667,7 +7717,7 @@
     </row>
     <row r="73" ht="14.3" spans="2:3">
       <c r="B73" s="52" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C73" s="52">
         <v>1.2</v>
@@ -7675,7 +7725,7 @@
     </row>
     <row r="74" ht="14.3" spans="2:3">
       <c r="B74" s="52" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C74" s="52">
         <v>0.2365</v>
@@ -7683,7 +7733,7 @@
     </row>
     <row r="75" ht="14.3" spans="2:3">
       <c r="B75" s="52" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C75" s="52">
         <v>25</v>
@@ -7691,7 +7741,7 @@
     </row>
     <row r="76" ht="14.3" spans="2:3">
       <c r="B76" s="52" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C76" s="52">
         <v>15</v>
@@ -7699,7 +7749,7 @@
     </row>
     <row r="77" ht="14.3" spans="2:3">
       <c r="B77" s="52" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C77" s="52">
         <v>10</v>
@@ -7707,7 +7757,7 @@
     </row>
     <row r="78" ht="14.3" spans="2:3">
       <c r="B78" s="52" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C78" s="3"/>
     </row>
@@ -7722,31 +7772,31 @@
     </row>
     <row r="83" ht="14.3" spans="2:3">
       <c r="B83" s="51" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C83" s="51"/>
     </row>
     <row r="84" ht="14.3" spans="2:3">
       <c r="B84" s="51" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C84" s="51"/>
     </row>
     <row r="85" ht="14.3" spans="2:3">
       <c r="B85" s="51" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C85" s="51"/>
     </row>
     <row r="86" ht="14.3" spans="2:3">
       <c r="B86" s="51" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C86" s="51"/>
     </row>
     <row r="87" ht="14.3" spans="2:3">
       <c r="B87" s="51" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C87" s="52">
         <v>2000</v>
@@ -7754,13 +7804,13 @@
     </row>
     <row r="88" ht="14.3" spans="2:3">
       <c r="B88" s="51" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C88" s="52"/>
     </row>
     <row r="89" ht="14.3" spans="2:3">
       <c r="B89" s="51" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C89" s="52">
         <v>560</v>
@@ -7768,7 +7818,7 @@
     </row>
     <row r="90" ht="14.3" spans="2:3">
       <c r="B90" s="52" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C90" s="52">
         <v>1.2</v>
@@ -7776,7 +7826,7 @@
     </row>
     <row r="91" ht="14.3" spans="2:3">
       <c r="B91" s="52" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C91" s="52">
         <v>0.2365</v>
@@ -7784,7 +7834,7 @@
     </row>
     <row r="92" ht="14.3" spans="2:3">
       <c r="B92" s="52" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C92" s="52">
         <v>25</v>
@@ -7792,7 +7842,7 @@
     </row>
     <row r="93" ht="14.3" spans="2:3">
       <c r="B93" s="52" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C93" s="52">
         <v>15</v>
@@ -7800,7 +7850,7 @@
     </row>
     <row r="94" ht="14.3" spans="2:3">
       <c r="B94" s="52" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C94" s="52">
         <v>10</v>
@@ -7808,7 +7858,7 @@
     </row>
     <row r="95" ht="14.3" spans="2:3">
       <c r="B95" s="52" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C95" s="3"/>
     </row>
@@ -7820,43 +7870,43 @@
     </row>
     <row r="103" ht="14.3" spans="2:3">
       <c r="B103" s="56" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C103" s="56"/>
     </row>
     <row r="104" ht="14.3" spans="2:3">
       <c r="B104" s="51" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C104" s="51"/>
     </row>
     <row r="105" ht="14.3" spans="2:3">
       <c r="B105" s="51" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C105" s="51"/>
     </row>
     <row r="106" ht="14.3" spans="2:3">
       <c r="B106" s="51" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C106" s="54"/>
     </row>
     <row r="107" ht="14.3" spans="2:3">
       <c r="B107" s="51" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C107" s="54"/>
     </row>
     <row r="108" ht="14.3" spans="2:3">
       <c r="B108" s="51" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C108" s="52"/>
     </row>
     <row r="109" ht="14.3" spans="2:3">
       <c r="B109" s="65" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C109" s="66">
         <v>560</v>
@@ -7864,7 +7914,7 @@
     </row>
     <row r="110" ht="14.3" spans="2:3">
       <c r="B110" s="52" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C110" s="52">
         <v>1.2</v>
@@ -7872,7 +7922,7 @@
     </row>
     <row r="111" ht="14.3" spans="2:3">
       <c r="B111" s="52" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C111" s="52">
         <v>0.2365</v>
@@ -7880,7 +7930,7 @@
     </row>
     <row r="112" ht="14.3" spans="2:3">
       <c r="B112" s="52" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C112" s="52">
         <v>25</v>
@@ -7888,7 +7938,7 @@
     </row>
     <row r="113" ht="14.3" spans="2:3">
       <c r="B113" s="52" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C113" s="52">
         <v>15</v>
@@ -7896,7 +7946,7 @@
     </row>
     <row r="114" ht="14.3" spans="2:3">
       <c r="B114" s="52" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C114" s="52">
         <v>10</v>
@@ -7904,13 +7954,13 @@
     </row>
     <row r="115" ht="14.3" spans="2:3">
       <c r="B115" s="52" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C115" s="67"/>
     </row>
     <row r="116" ht="14.3" spans="2:3">
       <c r="B116" s="52" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C116" s="67"/>
     </row>
@@ -7929,43 +7979,43 @@
     </row>
     <row r="121" ht="14.3" spans="2:3">
       <c r="B121" s="69" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C121" s="51"/>
     </row>
     <row r="122" ht="14.3" spans="2:3">
       <c r="B122" s="51" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C122" s="65"/>
     </row>
     <row r="123" ht="14.3" spans="2:3">
       <c r="B123" s="51" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C123" s="51"/>
     </row>
     <row r="124" ht="14.3" spans="2:3">
       <c r="B124" s="56" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C124" s="70"/>
     </row>
     <row r="125" ht="14.3" spans="2:3">
       <c r="B125" s="51" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C125" s="54"/>
     </row>
     <row r="126" ht="14.3" spans="2:3">
       <c r="B126" s="65" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C126" s="66"/>
     </row>
     <row r="127" ht="14.3" spans="2:3">
       <c r="B127" s="51" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C127" s="52">
         <v>560</v>
@@ -7973,7 +8023,7 @@
     </row>
     <row r="128" ht="14.3" spans="2:3">
       <c r="B128" s="52" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C128" s="52">
         <v>1.2</v>
@@ -7981,7 +8031,7 @@
     </row>
     <row r="129" ht="14.3" spans="2:3">
       <c r="B129" s="52" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C129" s="52">
         <v>0.2365</v>
@@ -7989,7 +8039,7 @@
     </row>
     <row r="130" ht="14.3" spans="2:3">
       <c r="B130" s="52" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C130" s="52">
         <v>25</v>
@@ -7997,7 +8047,7 @@
     </row>
     <row r="131" ht="14.3" spans="2:3">
       <c r="B131" s="52" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C131" s="52">
         <v>15</v>
@@ -8005,7 +8055,7 @@
     </row>
     <row r="132" ht="14.3" spans="2:3">
       <c r="B132" s="52" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C132" s="52">
         <v>10</v>
@@ -8013,7 +8063,7 @@
     </row>
     <row r="133" ht="14.3" spans="2:3">
       <c r="B133" s="52" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C133" s="67"/>
     </row>
@@ -8025,37 +8075,37 @@
     </row>
     <row r="141" ht="14.3" spans="2:3">
       <c r="B141" s="51" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C141" s="51"/>
     </row>
     <row r="142" ht="14.3" spans="2:3">
       <c r="B142" s="56" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C142" s="56"/>
     </row>
     <row r="143" ht="14.3" spans="2:3">
       <c r="B143" s="51" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C143" s="54"/>
     </row>
     <row r="144" ht="14.3" spans="2:3">
       <c r="B144" s="51" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C144" s="54"/>
     </row>
     <row r="145" ht="14.3" spans="2:3">
       <c r="B145" s="65" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C145" s="66"/>
     </row>
     <row r="146" ht="14.3" spans="2:3">
       <c r="B146" s="51" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C146" s="52">
         <v>560</v>
@@ -8063,7 +8113,7 @@
     </row>
     <row r="147" ht="14.3" spans="2:3">
       <c r="B147" s="52" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C147" s="52">
         <v>1.2</v>
@@ -8071,7 +8121,7 @@
     </row>
     <row r="148" ht="14.3" spans="2:3">
       <c r="B148" s="52" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C148" s="52">
         <v>25</v>
@@ -8079,7 +8129,7 @@
     </row>
     <row r="149" ht="14.3" spans="2:3">
       <c r="B149" s="52" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C149" s="52">
         <v>15</v>
@@ -8087,7 +8137,7 @@
     </row>
     <row r="150" ht="14.3" spans="2:3">
       <c r="B150" s="52" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C150" s="52">
         <v>10</v>
@@ -8095,7 +8145,7 @@
     </row>
     <row r="151" ht="14.3" spans="2:3">
       <c r="B151" s="52" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C151" s="3"/>
     </row>
@@ -8149,137 +8199,137 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" s="35" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="35" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C2" s="35"/>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="35" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="35" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="35" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="35" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -8319,7 +8369,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="42" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -8343,7 +8393,7 @@
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -8392,7 +8442,7 @@
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
@@ -8441,7 +8491,7 @@
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
@@ -8472,7 +8522,7 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
@@ -8481,12 +8531,12 @@
     <row r="11" ht="14.3" spans="1:11">
       <c r="A11" s="24"/>
       <c r="B11" s="43" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="43" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
@@ -8497,12 +8547,12 @@
     <row r="12" ht="14.3" spans="1:11">
       <c r="A12" s="24"/>
       <c r="B12" s="31" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="31" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
@@ -8516,7 +8566,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="31" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
@@ -8539,12 +8589,12 @@
     <row r="15" ht="14.3" spans="1:11">
       <c r="A15" s="24"/>
       <c r="B15" s="43" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="43" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
@@ -8560,7 +8610,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="31" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -8597,7 +8647,7 @@
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -8639,7 +8689,7 @@
         <v>75</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -8648,7 +8698,7 @@
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -8687,29 +8737,29 @@
     <row r="24" ht="14.3" spans="1:8">
       <c r="A24" s="24"/>
       <c r="B24" s="43" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="43" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="38" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" ht="14.3" spans="1:8">
       <c r="A25" s="24"/>
       <c r="B25" s="31" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="31" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="38"/>
@@ -8721,7 +8771,7 @@
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="31" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="38"/>
@@ -8739,17 +8789,17 @@
     <row r="28" ht="14.3" spans="1:11">
       <c r="A28" s="24"/>
       <c r="B28" s="43" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="43" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
@@ -8758,13 +8808,13 @@
     <row r="29" ht="14.3" spans="1:11">
       <c r="A29" s="24"/>
       <c r="B29" s="31" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="31" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -8779,7 +8829,7 @@
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="31" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
@@ -8809,7 +8859,7 @@
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="38" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" ht="14.3" spans="1:11">
@@ -8850,7 +8900,7 @@
         <v>20</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" ht="14.3" spans="1:11">
@@ -8879,7 +8929,7 @@
       </c>
       <c r="G36" s="30"/>
       <c r="H36" s="38" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" ht="14.3" spans="1:11">
@@ -8912,7 +8962,7 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="38" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="1:11">
@@ -8949,7 +8999,7 @@
         <v>25</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
@@ -8984,20 +9034,20 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K42" s="24"/>
     </row>
     <row r="43" ht="14.3" spans="1:11">
       <c r="A43" s="24"/>
       <c r="B43" s="26" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="26" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -9011,7 +9061,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -9019,10 +9069,10 @@
         <v>10</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -9034,7 +9084,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
@@ -9042,10 +9092,10 @@
         <v>15</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -9054,21 +9104,21 @@
     <row r="46" ht="14.3" spans="1:11">
       <c r="A46" s="24"/>
       <c r="B46" s="33" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="33" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -9077,19 +9127,19 @@
     <row r="47" ht="14.3" spans="1:11">
       <c r="A47" s="24"/>
       <c r="B47" s="33" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="33" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="24" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
@@ -9102,13 +9152,13 @@
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
       <c r="F48" s="33" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
@@ -9130,17 +9180,17 @@
     <row r="50" ht="14.3" spans="1:11">
       <c r="A50" s="24"/>
       <c r="B50" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
       <c r="F50" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -9152,15 +9202,15 @@
         <v>76</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
       <c r="F51" s="31" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
@@ -9170,18 +9220,18 @@
     <row r="52" ht="14.3" spans="1:11">
       <c r="A52" s="24"/>
       <c r="B52" s="31" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="31" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
@@ -9194,7 +9244,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -9202,7 +9252,7 @@
         <v>15</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
@@ -9212,15 +9262,15 @@
     <row r="54" ht="14.3" spans="1:11">
       <c r="A54" s="24"/>
       <c r="B54" s="33" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
       <c r="F54" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="24"/>
@@ -9235,10 +9285,10 @@
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
       <c r="F55" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
@@ -9261,13 +9311,13 @@
     <row r="57" ht="14.3" spans="1:11">
       <c r="A57" s="24"/>
       <c r="B57" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
       <c r="F57" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
@@ -9278,18 +9328,18 @@
     <row r="58" ht="14.3" spans="1:11">
       <c r="A58" s="24"/>
       <c r="B58" s="31" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="31" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
@@ -9302,7 +9352,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
@@ -9310,7 +9360,7 @@
         <v>15</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H59" s="24"/>
       <c r="I59" s="24"/>
@@ -9320,15 +9370,15 @@
     <row r="60" ht="14.3" spans="1:11">
       <c r="A60" s="24"/>
       <c r="B60" s="33" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
       <c r="F60" s="33" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="G60" s="34"/>
       <c r="H60" s="24"/>
@@ -9340,15 +9390,15 @@
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
       <c r="F61" s="33" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
@@ -9370,18 +9420,18 @@
     </row>
     <row r="63" ht="14.3" spans="1:11">
       <c r="A63" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
       <c r="E63" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
@@ -9392,21 +9442,21 @@
     <row r="64" ht="14.3" spans="1:11">
       <c r="A64" s="24"/>
       <c r="B64" s="31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="31" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
@@ -9418,7 +9468,7 @@
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
       <c r="F65" s="33" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G65" s="34"/>
       <c r="H65" s="24"/>
@@ -9442,13 +9492,13 @@
     <row r="67" ht="14.3" spans="1:11">
       <c r="A67" s="24"/>
       <c r="B67" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
       <c r="F67" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
@@ -9459,18 +9509,18 @@
     <row r="68" ht="14.3" spans="1:11">
       <c r="A68" s="24"/>
       <c r="B68" s="31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
       <c r="F68" s="31" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="24"/>
@@ -9484,7 +9534,7 @@
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="33" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G69" s="34"/>
       <c r="H69" s="24"/>
@@ -9508,13 +9558,13 @@
     <row r="71" ht="14.3" spans="1:11">
       <c r="A71" s="24"/>
       <c r="B71" s="26" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
       <c r="F71" s="26" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G71" s="24"/>
       <c r="H71" s="24"/>
@@ -9525,18 +9575,18 @@
     <row r="72" ht="14.3" spans="1:11">
       <c r="A72" s="24"/>
       <c r="B72" s="31" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
       <c r="F72" s="31" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
@@ -9546,15 +9596,15 @@
     <row r="73" ht="14.3" spans="1:11">
       <c r="A73" s="24"/>
       <c r="B73" s="33" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
       <c r="F73" s="44" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="24"/>
@@ -9567,7 +9617,7 @@
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="35" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
@@ -9590,15 +9640,15 @@
     <row r="76" ht="14.3" spans="1:11">
       <c r="A76" s="24"/>
       <c r="B76" s="26" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
       <c r="F76" s="26" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G76" s="24"/>
       <c r="H76" s="24"/>
@@ -9612,7 +9662,7 @@
         <v>15</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
@@ -9620,7 +9670,7 @@
         <v>15</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
@@ -9630,18 +9680,18 @@
     <row r="78" ht="14.3" spans="1:11">
       <c r="A78" s="24"/>
       <c r="B78" s="33" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
       <c r="F78" s="33" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
@@ -9651,15 +9701,15 @@
     <row r="79" ht="14.3" spans="1:11">
       <c r="A79" s="24"/>
       <c r="B79" s="33" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
       <c r="F79" s="33" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G79" s="34"/>
       <c r="H79" s="24"/>
@@ -9670,18 +9720,18 @@
     <row r="80" ht="14.3" spans="1:11">
       <c r="A80" s="24"/>
       <c r="B80" s="33" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
       <c r="F80" s="33" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
@@ -9691,15 +9741,15 @@
     <row r="81" ht="14.3" spans="1:11">
       <c r="A81" s="24"/>
       <c r="B81" s="33" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
       <c r="F81" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="24"/>
@@ -9710,10 +9760,10 @@
     <row r="82" ht="14.3" spans="1:11">
       <c r="A82" s="24"/>
       <c r="B82" s="33" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
@@ -9753,13 +9803,13 @@
     <row r="85" ht="14.3" spans="1:11">
       <c r="A85" s="24"/>
       <c r="B85" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
       <c r="F85" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
@@ -9773,7 +9823,7 @@
         <v>15</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
@@ -9781,7 +9831,7 @@
         <v>15</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
@@ -9791,18 +9841,18 @@
     <row r="87" ht="14.3" spans="1:11">
       <c r="A87" s="24"/>
       <c r="B87" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
       <c r="F87" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
@@ -9816,7 +9866,7 @@
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
       <c r="F88" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G88" s="34"/>
       <c r="H88" s="24"/>
@@ -9840,13 +9890,13 @@
     <row r="90" ht="14.3" spans="1:11">
       <c r="A90" s="24"/>
       <c r="B90" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
       <c r="F90" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
@@ -9860,7 +9910,7 @@
         <v>15</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
@@ -9868,7 +9918,7 @@
         <v>15</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
@@ -9878,18 +9928,18 @@
     <row r="92" ht="14.3" spans="1:11">
       <c r="A92" s="24"/>
       <c r="B92" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
       <c r="F92" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H92" s="24"/>
       <c r="I92" s="24"/>
@@ -9903,7 +9953,7 @@
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
       <c r="F93" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G93" s="34"/>
       <c r="H93" s="24"/>
@@ -9927,13 +9977,13 @@
     <row r="95" ht="14.3" spans="1:11">
       <c r="A95" s="24"/>
       <c r="B95" s="24" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
@@ -9947,7 +9997,7 @@
         <v>15</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
@@ -9955,7 +10005,7 @@
         <v>15</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
@@ -9965,18 +10015,18 @@
     <row r="97" ht="14.3" spans="1:11">
       <c r="A97" s="24"/>
       <c r="B97" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
       <c r="F97" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H97" s="24"/>
       <c r="I97" s="24"/>
@@ -9990,7 +10040,7 @@
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
       <c r="F98" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G98" s="34"/>
       <c r="H98" s="24"/>
@@ -10014,13 +10064,13 @@
     <row r="100" ht="14.3" spans="1:11">
       <c r="A100" s="24"/>
       <c r="B100" s="26" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
       <c r="F100" s="26" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G100" s="24"/>
       <c r="H100" s="24"/>
@@ -10034,7 +10084,7 @@
         <v>15</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
@@ -10042,7 +10092,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
@@ -10052,18 +10102,18 @@
     <row r="102" ht="14.3" spans="1:11">
       <c r="A102" s="24"/>
       <c r="B102" s="33" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
       <c r="F102" s="33" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G102" s="34" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
@@ -10073,15 +10123,15 @@
     <row r="103" ht="14.3" spans="1:11">
       <c r="A103" s="24"/>
       <c r="B103" s="33" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
       <c r="F103" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G103" s="34"/>
       <c r="H103" s="24"/>
@@ -10105,13 +10155,13 @@
     <row r="105" ht="14.3" spans="1:11">
       <c r="A105" s="24"/>
       <c r="B105" s="26" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
       <c r="F105" s="26" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -10125,7 +10175,7 @@
         <v>15</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="24"/>
@@ -10133,7 +10183,7 @@
         <v>15</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H106" s="24"/>
       <c r="I106" s="24"/>
@@ -10143,18 +10193,18 @@
     <row r="107" ht="14.3" spans="1:11">
       <c r="A107" s="24"/>
       <c r="B107" s="33" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
       <c r="F107" s="33" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H107" s="24"/>
       <c r="I107" s="24"/>
@@ -10164,15 +10214,15 @@
     <row r="108" ht="14.3" spans="1:11">
       <c r="A108" s="24"/>
       <c r="B108" s="33" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D108" s="24"/>
       <c r="E108" s="24"/>
       <c r="F108" s="33" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G108" s="34"/>
       <c r="H108" s="24"/>
@@ -10183,18 +10233,18 @@
     <row r="109" ht="14.3" spans="1:11">
       <c r="A109" s="24"/>
       <c r="B109" s="33" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
       <c r="F109" s="33" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="H109" s="24"/>
       <c r="I109" s="24"/>
@@ -10208,7 +10258,7 @@
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
       <c r="F110" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G110" s="34"/>
       <c r="H110" s="24"/>
@@ -10232,13 +10282,13 @@
     <row r="112" ht="14.3" spans="1:11">
       <c r="A112" s="24"/>
       <c r="B112" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
       <c r="E112" s="24"/>
       <c r="F112" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G112" s="24"/>
       <c r="H112" s="24"/>
@@ -10252,7 +10302,7 @@
         <v>15</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D113" s="24"/>
       <c r="E113" s="24"/>
@@ -10260,7 +10310,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
@@ -10270,18 +10320,18 @@
     <row r="114" ht="14.3" spans="1:11">
       <c r="A114" s="24"/>
       <c r="B114" s="33" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D114" s="24"/>
       <c r="E114" s="24"/>
       <c r="F114" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G114" s="34" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
@@ -10295,7 +10345,7 @@
       <c r="D115" s="24"/>
       <c r="E115" s="24"/>
       <c r="F115" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G115" s="34"/>
       <c r="H115" s="24"/>
@@ -10319,13 +10369,13 @@
     <row r="117" ht="14.3" spans="1:11">
       <c r="A117" s="24"/>
       <c r="B117" s="26" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
       <c r="F117" s="26" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
@@ -10339,7 +10389,7 @@
         <v>15</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
@@ -10347,7 +10397,7 @@
         <v>15</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
@@ -10357,18 +10407,18 @@
     <row r="119" ht="14.3" spans="1:11">
       <c r="A119" s="24"/>
       <c r="B119" s="33" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
       <c r="F119" s="33" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G119" s="34" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
@@ -10378,15 +10428,15 @@
     <row r="120" ht="14.3" spans="1:11">
       <c r="A120" s="24"/>
       <c r="B120" s="33" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D120" s="24"/>
       <c r="E120" s="24"/>
       <c r="F120" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G120" s="34"/>
       <c r="H120" s="24"/>
@@ -10401,10 +10451,10 @@
       <c r="D121" s="24"/>
       <c r="E121" s="24"/>
       <c r="F121" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G121" s="34" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="H121" s="24"/>
       <c r="I121" s="24"/>
@@ -10418,7 +10468,7 @@
       <c r="D122" s="24"/>
       <c r="E122" s="24"/>
       <c r="F122" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G122" s="34"/>
       <c r="H122" s="24"/>
@@ -10442,13 +10492,13 @@
     <row r="124" ht="14.3" spans="1:11">
       <c r="A124" s="24"/>
       <c r="B124" s="26" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
       <c r="E124" s="24"/>
       <c r="F124" s="26" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G124" s="24"/>
       <c r="H124" s="24"/>
@@ -10462,7 +10512,7 @@
         <v>15</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D125" s="24"/>
       <c r="E125" s="24"/>
@@ -10470,7 +10520,7 @@
         <v>15</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H125" s="24"/>
       <c r="I125" s="24"/>
@@ -10480,18 +10530,18 @@
     <row r="126" ht="14.3" spans="1:11">
       <c r="A126" s="24"/>
       <c r="B126" s="33" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D126" s="24"/>
       <c r="E126" s="24"/>
       <c r="F126" s="33" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="24"/>
@@ -10501,18 +10551,18 @@
     <row r="127" ht="14.3" spans="1:11">
       <c r="A127" s="24"/>
       <c r="B127" s="33" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D127" s="24"/>
       <c r="E127" s="24"/>
       <c r="F127" s="44" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H127" s="24"/>
       <c r="I127" s="24"/>
@@ -10522,18 +10572,18 @@
     <row r="128" ht="14.3" spans="1:11">
       <c r="A128" s="24"/>
       <c r="B128" s="33" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D128" s="24"/>
       <c r="E128" s="24"/>
       <c r="F128" s="33" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H128" s="24"/>
       <c r="I128" s="24"/>
@@ -10547,7 +10597,7 @@
       <c r="D129" s="24"/>
       <c r="E129" s="24"/>
       <c r="F129" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G129" s="34"/>
       <c r="H129" s="24"/>
@@ -10562,10 +10612,10 @@
       <c r="D130" s="24"/>
       <c r="E130" s="24"/>
       <c r="F130" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G130" s="34" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H130" s="24"/>
       <c r="I130" s="24"/>
@@ -10579,7 +10629,7 @@
       <c r="D131" s="24"/>
       <c r="E131" s="24"/>
       <c r="F131" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G131" s="34"/>
       <c r="H131" s="24"/>
@@ -10603,13 +10653,13 @@
     <row r="133" ht="14.3" spans="1:11">
       <c r="A133" s="24"/>
       <c r="B133" s="26" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
       <c r="E133" s="24"/>
       <c r="F133" s="26" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G133" s="24"/>
       <c r="H133" s="24"/>
@@ -10623,7 +10673,7 @@
         <v>15</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D134" s="24"/>
       <c r="E134" s="24"/>
@@ -10631,7 +10681,7 @@
         <v>15</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H134" s="24"/>
       <c r="I134" s="24"/>
@@ -10641,18 +10691,18 @@
     <row r="135" ht="14.3" spans="1:11">
       <c r="A135" s="24"/>
       <c r="B135" s="33" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D135" s="24"/>
       <c r="E135" s="24"/>
       <c r="F135" s="33" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G135" s="34" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="H135" s="24"/>
       <c r="I135" s="24"/>
@@ -10662,15 +10712,15 @@
     <row r="136" ht="14.3" spans="1:11">
       <c r="A136" s="24"/>
       <c r="B136" s="33" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D136" s="24"/>
       <c r="E136" s="24"/>
       <c r="F136" s="33" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G136" s="34"/>
       <c r="H136" s="24"/>
@@ -10681,18 +10731,18 @@
     <row r="137" ht="14.3" spans="1:11">
       <c r="A137" s="24"/>
       <c r="B137" s="33" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D137" s="24"/>
       <c r="E137" s="24"/>
       <c r="F137" s="33" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G137" s="34" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H137" s="24"/>
       <c r="I137" s="24"/>
@@ -10706,7 +10756,7 @@
       <c r="D138" s="24"/>
       <c r="E138" s="24"/>
       <c r="F138" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G138" s="34"/>
       <c r="H138" s="24"/>
@@ -10721,10 +10771,10 @@
       <c r="D139" s="24"/>
       <c r="E139" s="24"/>
       <c r="F139" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G139" s="34" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H139" s="24"/>
       <c r="I139" s="24"/>
@@ -10738,7 +10788,7 @@
       <c r="D140" s="24"/>
       <c r="E140" s="24"/>
       <c r="F140" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G140" s="34"/>
       <c r="H140" s="24"/>
@@ -10762,13 +10812,13 @@
     <row r="142" ht="14.3" spans="1:11">
       <c r="A142" s="24"/>
       <c r="B142" s="26" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
       <c r="E142" s="24"/>
       <c r="F142" s="26" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G142" s="24"/>
       <c r="H142" s="24"/>
@@ -10782,7 +10832,7 @@
         <v>15</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D143" s="24"/>
       <c r="E143" s="24"/>
@@ -10790,7 +10840,7 @@
         <v>15</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H143" s="24"/>
       <c r="I143" s="24"/>
@@ -10800,18 +10850,18 @@
     <row r="144" ht="14.3" spans="1:11">
       <c r="A144" s="24"/>
       <c r="B144" s="33" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D144" s="24"/>
       <c r="E144" s="24"/>
       <c r="F144" s="33" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H144" s="24"/>
       <c r="I144" s="24"/>
@@ -10821,15 +10871,15 @@
     <row r="145" ht="14.3" spans="1:11">
       <c r="A145" s="24"/>
       <c r="B145" s="33" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D145" s="24"/>
       <c r="E145" s="24"/>
       <c r="F145" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G145" s="34"/>
       <c r="H145" s="24"/>
@@ -10840,18 +10890,18 @@
     <row r="146" ht="14.3" spans="1:11">
       <c r="A146" s="24"/>
       <c r="B146" s="33" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D146" s="24"/>
       <c r="E146" s="24"/>
       <c r="F146" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G146" s="34" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H146" s="24"/>
       <c r="I146" s="24"/>
@@ -10865,7 +10915,7 @@
       <c r="D147" s="24"/>
       <c r="E147" s="24"/>
       <c r="F147" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G147" s="34"/>
       <c r="H147" s="24"/>
@@ -10889,13 +10939,13 @@
     <row r="149" ht="14.3" spans="1:11">
       <c r="A149" s="24"/>
       <c r="B149" s="26" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C149" s="24"/>
       <c r="D149" s="24"/>
       <c r="E149" s="24"/>
       <c r="F149" s="26" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G149" s="24"/>
       <c r="H149" s="24"/>
@@ -10909,7 +10959,7 @@
         <v>15</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D150" s="24"/>
       <c r="E150" s="24"/>
@@ -10917,7 +10967,7 @@
         <v>15</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H150" s="24"/>
       <c r="I150" s="24"/>
@@ -10927,18 +10977,18 @@
     <row r="151" ht="14.3" spans="1:11">
       <c r="A151" s="24"/>
       <c r="B151" s="33" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D151" s="24"/>
       <c r="E151" s="24"/>
       <c r="F151" s="33" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G151" s="34" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -10948,15 +10998,15 @@
     <row r="152" ht="14.3" spans="1:11">
       <c r="A152" s="24"/>
       <c r="B152" s="33" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D152" s="24"/>
       <c r="E152" s="24"/>
       <c r="F152" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G152" s="34"/>
       <c r="H152" s="24"/>
@@ -10967,18 +11017,18 @@
     <row r="153" ht="14.3" spans="1:11">
       <c r="A153" s="24"/>
       <c r="B153" s="33" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D153" s="24"/>
       <c r="E153" s="24"/>
       <c r="F153" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G153" s="34" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H153" s="24"/>
       <c r="I153" s="24"/>
@@ -10988,15 +11038,15 @@
     <row r="154" ht="14.3" spans="1:11">
       <c r="A154" s="24"/>
       <c r="B154" s="33" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D154" s="24"/>
       <c r="E154" s="24"/>
       <c r="F154" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G154" s="34"/>
       <c r="H154" s="24"/>
@@ -11020,13 +11070,13 @@
     <row r="156" ht="14.3" spans="1:11">
       <c r="A156" s="24"/>
       <c r="B156" s="26" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C156" s="24"/>
       <c r="D156" s="24"/>
       <c r="E156" s="24"/>
       <c r="F156" s="26" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G156" s="24"/>
       <c r="H156" s="24"/>
@@ -11040,7 +11090,7 @@
         <v>15</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D157" s="24"/>
       <c r="E157" s="24"/>
@@ -11048,7 +11098,7 @@
         <v>15</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H157" s="24"/>
       <c r="I157" s="24"/>
@@ -11058,18 +11108,18 @@
     <row r="158" ht="14.3" spans="1:11">
       <c r="A158" s="24"/>
       <c r="B158" s="33" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D158" s="24"/>
       <c r="E158" s="24"/>
       <c r="F158" s="33" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H158" s="24"/>
       <c r="I158" s="24"/>
@@ -11083,7 +11133,7 @@
       <c r="D159" s="24"/>
       <c r="E159" s="24"/>
       <c r="F159" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G159" s="34"/>
       <c r="H159" s="24"/>
@@ -11107,13 +11157,13 @@
     <row r="161" ht="14.3" spans="1:11">
       <c r="A161" s="24"/>
       <c r="B161" s="26" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C161" s="24"/>
       <c r="D161" s="24"/>
       <c r="E161" s="24"/>
       <c r="F161" s="26" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="G161" s="24"/>
       <c r="H161" s="24"/>
@@ -11127,7 +11177,7 @@
         <v>15</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D162" s="24"/>
       <c r="E162" s="24"/>
@@ -11135,7 +11185,7 @@
         <v>15</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H162" s="24"/>
       <c r="I162" s="24"/>
@@ -11145,18 +11195,18 @@
     <row r="163" ht="14.3" spans="1:11">
       <c r="A163" s="24"/>
       <c r="B163" s="33" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C163" s="34" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D163" s="24"/>
       <c r="E163" s="24"/>
       <c r="F163" s="44" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G163" s="34" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H163" s="24"/>
       <c r="I163" s="24"/>
@@ -11170,7 +11220,7 @@
       <c r="D164" s="24"/>
       <c r="E164" s="24"/>
       <c r="F164" s="33" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G164" s="34"/>
       <c r="H164" s="24"/>
@@ -11194,13 +11244,13 @@
     <row r="166" ht="14.3" spans="1:11">
       <c r="A166" s="24"/>
       <c r="B166" s="26" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C166" s="24"/>
       <c r="D166" s="24"/>
       <c r="E166" s="24"/>
       <c r="F166" s="26" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G166" s="24"/>
       <c r="H166" s="24"/>
@@ -11214,7 +11264,7 @@
         <v>10</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D167" s="24"/>
       <c r="E167" s="24"/>
@@ -11222,7 +11272,7 @@
         <v>10</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H167" s="24"/>
       <c r="I167" s="24"/>
@@ -11232,18 +11282,18 @@
     <row r="168" ht="14.3" spans="1:11">
       <c r="A168" s="24"/>
       <c r="B168" s="33" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D168" s="24"/>
       <c r="E168" s="24"/>
       <c r="F168" s="33" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G168" s="34" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H168" s="24"/>
       <c r="I168" s="24"/>
@@ -11257,7 +11307,7 @@
       <c r="D169" s="24"/>
       <c r="E169" s="24"/>
       <c r="F169" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G169" s="34"/>
       <c r="H169" s="24"/>
@@ -11281,13 +11331,13 @@
     <row r="171" ht="14.3" spans="1:11">
       <c r="A171" s="24"/>
       <c r="B171" s="26" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C171" s="24"/>
       <c r="D171" s="24"/>
       <c r="E171" s="24"/>
       <c r="F171" s="26" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G171" s="24"/>
       <c r="H171" s="24"/>
@@ -11301,7 +11351,7 @@
         <v>10</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D172" s="24"/>
       <c r="E172" s="24"/>
@@ -11309,7 +11359,7 @@
         <v>10</v>
       </c>
       <c r="G172" s="32" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H172" s="24"/>
       <c r="I172" s="24"/>
@@ -11319,18 +11369,18 @@
     <row r="173" ht="14.3" spans="1:11">
       <c r="A173" s="24"/>
       <c r="B173" s="33" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D173" s="24"/>
       <c r="E173" s="24"/>
       <c r="F173" s="44" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H173" s="24"/>
       <c r="I173" s="24"/>
@@ -11344,7 +11394,7 @@
       <c r="D174" s="24"/>
       <c r="E174" s="24"/>
       <c r="F174" s="33" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G174" s="34"/>
       <c r="H174" s="24"/>
@@ -11367,18 +11417,18 @@
     </row>
     <row r="176" ht="14.3" spans="1:11">
       <c r="A176" s="29" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C176" s="24"/>
       <c r="D176" s="24"/>
       <c r="E176" s="29" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F176" s="26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G176" s="24"/>
       <c r="H176" s="24"/>
@@ -11392,7 +11442,7 @@
         <v>15</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D177" s="24"/>
       <c r="E177" s="24"/>
@@ -11400,7 +11450,7 @@
         <v>15</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H177" s="24"/>
       <c r="I177" s="24"/>
@@ -11413,12 +11463,12 @@
         <v>68</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="24"/>
       <c r="F178" s="33" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G178" s="34"/>
       <c r="H178" s="24"/>
@@ -11442,13 +11492,13 @@
     <row r="180" ht="14.3" spans="1:11">
       <c r="A180" s="24"/>
       <c r="B180" s="26" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C180" s="24"/>
       <c r="D180" s="24"/>
       <c r="E180" s="24"/>
       <c r="F180" s="26" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="G180" s="24"/>
       <c r="H180" s="24"/>
@@ -11462,7 +11512,7 @@
         <v>34</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D181" s="24"/>
       <c r="E181" s="24"/>
@@ -11470,7 +11520,7 @@
         <v>34</v>
       </c>
       <c r="G181" s="32" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -11512,20 +11562,20 @@
         <v>28</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C184" s="38" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D184" s="24"/>
       <c r="E184" s="29" t="s">
         <v>28</v>
       </c>
       <c r="F184" s="26" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G184" s="38" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H184" s="24"/>
       <c r="I184" s="24"/>
@@ -11535,18 +11585,18 @@
     <row r="185" ht="14.3" spans="1:11">
       <c r="A185" s="24"/>
       <c r="B185" s="31" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D185" s="24"/>
       <c r="E185" s="24"/>
       <c r="F185" s="45" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G185" s="31" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -11556,15 +11606,15 @@
     <row r="186" ht="14.3" spans="1:11">
       <c r="A186" s="24"/>
       <c r="B186" s="33" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C186" s="34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D186" s="24"/>
       <c r="E186" s="24"/>
       <c r="F186" s="33" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="G186" s="34"/>
       <c r="H186" s="24"/>
@@ -11579,7 +11629,7 @@
       <c r="D187" s="24"/>
       <c r="E187" s="24"/>
       <c r="F187" s="45" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G187" s="24"/>
       <c r="H187" s="24"/>
@@ -11594,7 +11644,7 @@
       <c r="D188" s="24"/>
       <c r="E188" s="24"/>
       <c r="F188" s="33" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="G188" s="24"/>
       <c r="H188" s="24"/>
@@ -11618,15 +11668,15 @@
     <row r="190" ht="14.3" spans="1:11">
       <c r="A190" s="24"/>
       <c r="B190" s="26" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C190" s="38" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D190" s="24"/>
       <c r="E190" s="24"/>
       <c r="F190" s="26" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G190" s="38"/>
       <c r="H190" s="24"/>
@@ -11637,13 +11687,13 @@
     <row r="191" ht="14.3" spans="1:11">
       <c r="A191" s="24"/>
       <c r="B191" s="33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C191" s="34"/>
       <c r="D191" s="24"/>
       <c r="E191" s="24"/>
       <c r="F191" s="45" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G191" s="33"/>
       <c r="H191" s="24"/>
@@ -11654,13 +11704,13 @@
     <row r="192" ht="14.3" spans="1:11">
       <c r="A192" s="24"/>
       <c r="B192" s="33" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="24"/>
       <c r="E192" s="24"/>
       <c r="F192" s="33" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G192" s="34"/>
       <c r="H192" s="24"/>
@@ -11675,7 +11725,7 @@
       <c r="D193" s="24"/>
       <c r="E193" s="24"/>
       <c r="F193" s="45" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="G193" s="24"/>
       <c r="H193" s="24"/>
@@ -11690,7 +11740,7 @@
       <c r="D194" s="24"/>
       <c r="E194" s="24"/>
       <c r="F194" s="33" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="G194" s="24"/>
       <c r="H194" s="24"/>
@@ -11714,13 +11764,13 @@
     <row r="196" ht="14.3" spans="1:11">
       <c r="A196" s="24"/>
       <c r="B196" s="26" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="24"/>
       <c r="E196" s="24"/>
       <c r="F196" s="26" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G196" s="24"/>
       <c r="H196" s="24"/>
@@ -11731,13 +11781,13 @@
     <row r="197" ht="14.3" spans="1:11">
       <c r="A197" s="24"/>
       <c r="B197" s="33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C197" s="34"/>
       <c r="D197" s="24"/>
       <c r="E197" s="24"/>
       <c r="F197" s="45" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G197" s="33"/>
       <c r="H197" s="24"/>
@@ -11748,13 +11798,13 @@
     <row r="198" ht="14.3" spans="1:11">
       <c r="A198" s="24"/>
       <c r="B198" s="33" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="24"/>
       <c r="E198" s="24"/>
       <c r="F198" s="33" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G198" s="34"/>
       <c r="H198" s="24"/>
@@ -11769,7 +11819,7 @@
       <c r="D199" s="24"/>
       <c r="E199" s="24"/>
       <c r="F199" s="45" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="G199" s="24"/>
       <c r="H199" s="24"/>
@@ -11784,7 +11834,7 @@
       <c r="D200" s="24"/>
       <c r="E200" s="24"/>
       <c r="F200" s="33" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="G200" s="24"/>
       <c r="H200" s="24"/>
@@ -11859,13 +11909,13 @@
     <row r="205" ht="14.3" spans="1:11">
       <c r="A205" s="24"/>
       <c r="B205" s="26" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="24"/>
       <c r="E205" s="24"/>
       <c r="F205" s="26" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G205" s="24"/>
       <c r="H205" s="24"/>
@@ -11910,13 +11960,13 @@
     <row r="208" ht="14.3" spans="1:11">
       <c r="A208" s="24"/>
       <c r="B208" s="26" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="24"/>
       <c r="E208" s="24"/>
       <c r="F208" s="26" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="G208" s="24"/>
       <c r="H208" s="24"/>
@@ -11961,13 +12011,13 @@
     <row r="211" ht="14.3" spans="1:11">
       <c r="A211" s="24"/>
       <c r="B211" s="26" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C211" s="24"/>
       <c r="D211" s="24"/>
       <c r="E211" s="24"/>
       <c r="F211" s="26" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G211" s="24"/>
       <c r="H211" s="24"/>
@@ -11981,7 +12031,7 @@
         <v>15</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D212" s="24"/>
       <c r="E212" s="24"/>
@@ -11989,7 +12039,7 @@
         <v>15</v>
       </c>
       <c r="G212" s="32" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H212" s="24"/>
       <c r="I212" s="24"/>
@@ -11999,13 +12049,13 @@
     <row r="213" ht="14.3" spans="1:11">
       <c r="A213" s="24"/>
       <c r="B213" s="33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C213" s="34"/>
       <c r="D213" s="24"/>
       <c r="E213" s="24"/>
       <c r="F213" s="33" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G213" s="34"/>
       <c r="H213" s="24"/>
@@ -12016,13 +12066,13 @@
     <row r="214" ht="14.3" spans="1:11">
       <c r="A214" s="24"/>
       <c r="B214" s="33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C214" s="24"/>
       <c r="D214" s="24"/>
       <c r="E214" s="24"/>
       <c r="F214" s="33" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G214" s="34"/>
       <c r="H214" s="24"/>
@@ -12033,13 +12083,13 @@
     <row r="215" ht="14.3" spans="1:11">
       <c r="A215" s="24"/>
       <c r="B215" s="24" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C215" s="24"/>
       <c r="D215" s="24"/>
       <c r="E215" s="24"/>
       <c r="F215" s="33" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G215" s="24"/>
       <c r="H215" s="24"/>
@@ -12050,13 +12100,13 @@
     <row r="216" ht="14.3" spans="1:11">
       <c r="A216" s="24"/>
       <c r="B216" s="24" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C216" s="24"/>
       <c r="D216" s="24"/>
       <c r="E216" s="24"/>
       <c r="F216" s="33" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
@@ -12071,7 +12121,7 @@
       <c r="D217" s="24"/>
       <c r="E217" s="24"/>
       <c r="F217" s="33" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G217" s="24"/>
       <c r="H217" s="24"/>
@@ -12086,7 +12136,7 @@
       <c r="D218" s="24"/>
       <c r="E218" s="24"/>
       <c r="F218" s="33" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="G218" s="24"/>
       <c r="H218" s="24"/>
@@ -12101,7 +12151,7 @@
       <c r="D219" s="24"/>
       <c r="E219" s="24"/>
       <c r="F219" s="33" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="G219" s="24"/>
       <c r="H219" s="24"/>
@@ -12116,7 +12166,7 @@
       <c r="D220" s="24"/>
       <c r="E220" s="24"/>
       <c r="F220" s="33" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G220" s="24"/>
       <c r="H220" s="24"/>
@@ -12172,7 +12222,7 @@
         <v>34</v>
       </c>
       <c r="G223" s="32" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H223" s="24"/>
       <c r="I223" s="24"/>
@@ -12218,7 +12268,7 @@
       <c r="D226" s="24"/>
       <c r="E226" s="24"/>
       <c r="F226" s="26" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G226" s="24"/>
       <c r="H226" s="24"/>
@@ -12238,7 +12288,7 @@
         <v>34</v>
       </c>
       <c r="G227" s="32" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="H227" s="24"/>
       <c r="I227" s="24"/>
@@ -12284,7 +12334,7 @@
       <c r="D230" s="24"/>
       <c r="E230" s="24"/>
       <c r="F230" s="26" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G230" s="24"/>
       <c r="H230" s="24"/>
@@ -12306,7 +12356,7 @@
         <v>34</v>
       </c>
       <c r="G231" s="32" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H231" s="24"/>
       <c r="I231" s="24"/>
@@ -12415,20 +12465,20 @@
     </row>
     <row r="238" ht="14.3" spans="1:11">
       <c r="A238" s="29" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B238" s="46" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C238" s="25" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D238" s="24"/>
       <c r="E238" s="29" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F238" s="46" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G238" s="24"/>
       <c r="H238" s="24"/>
@@ -12442,7 +12492,7 @@
         <v>15</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D239" s="24"/>
       <c r="E239" s="24"/>
@@ -12450,7 +12500,7 @@
         <v>15</v>
       </c>
       <c r="G239" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H239" s="24"/>
       <c r="I239" s="24"/>
@@ -12460,13 +12510,13 @@
     <row r="240" ht="14.3" spans="1:11">
       <c r="A240" s="24"/>
       <c r="B240" s="33" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C240" s="34"/>
       <c r="D240" s="24"/>
       <c r="E240" s="24"/>
       <c r="F240" s="33" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G240" s="34"/>
       <c r="H240" s="24"/>
@@ -12477,13 +12527,13 @@
     <row r="241" ht="14.3" spans="1:11">
       <c r="A241" s="24"/>
       <c r="B241" s="33" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C241" s="34"/>
       <c r="D241" s="24"/>
       <c r="E241" s="24"/>
       <c r="F241" s="33" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G241" s="34"/>
       <c r="H241" s="24"/>
@@ -12507,42 +12557,42 @@
     <row r="243" ht="21" customHeight="1" spans="1:8">
       <c r="A243" s="24"/>
       <c r="B243" s="46" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C243" s="24"/>
       <c r="D243" s="24"/>
       <c r="E243" s="24"/>
       <c r="F243" s="46" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G243" s="24"/>
       <c r="H243" s="47" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="244" ht="14.3" spans="1:7">
       <c r="A244" s="24"/>
       <c r="B244" s="31" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C244" s="32"/>
       <c r="D244" s="24"/>
       <c r="E244" s="24"/>
       <c r="F244" s="31" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G244" s="32"/>
     </row>
     <row r="245" ht="14.3" spans="1:7">
       <c r="A245" s="24"/>
       <c r="B245" s="33" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C245" s="34"/>
       <c r="D245" s="24"/>
       <c r="E245" s="24"/>
       <c r="F245" s="33" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G245" s="34"/>
     </row>
@@ -12562,13 +12612,13 @@
     <row r="247" ht="14.3" spans="1:11">
       <c r="A247" s="24"/>
       <c r="B247" s="46" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C247" s="24"/>
       <c r="D247" s="24"/>
       <c r="E247" s="24"/>
       <c r="F247" s="46" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G247" s="24"/>
       <c r="H247" s="24"/>
@@ -12579,21 +12629,21 @@
     <row r="248" ht="14.3" spans="1:11">
       <c r="A248" s="24"/>
       <c r="B248" s="31" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D248" s="24"/>
       <c r="E248" s="24"/>
       <c r="F248" s="31" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="G248" s="32" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="H248" s="24" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="I248" s="24"/>
       <c r="J248" s="24"/>
@@ -12602,13 +12652,13 @@
     <row r="249" ht="14.3" spans="1:11">
       <c r="A249" s="24"/>
       <c r="B249" s="33" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C249" s="34"/>
       <c r="D249" s="24"/>
       <c r="E249" s="24"/>
       <c r="F249" s="33" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G249" s="34"/>
       <c r="H249" s="24"/>
@@ -12623,7 +12673,7 @@
       <c r="D250" s="24"/>
       <c r="E250" s="24"/>
       <c r="F250" s="33" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G250" s="34"/>
       <c r="H250" s="24"/>
@@ -12638,7 +12688,7 @@
       <c r="D251" s="24"/>
       <c r="E251" s="24"/>
       <c r="F251" s="33" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G251" s="34"/>
       <c r="H251" s="24"/>
@@ -12662,13 +12712,13 @@
     <row r="253" ht="14.3" spans="1:11">
       <c r="A253" s="24"/>
       <c r="B253" s="46" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C253" s="24"/>
       <c r="D253" s="24"/>
       <c r="E253" s="24"/>
       <c r="F253" s="46" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G253" s="24"/>
       <c r="H253" s="24"/>
@@ -12679,18 +12729,18 @@
     <row r="254" ht="14.3" spans="1:11">
       <c r="A254" s="24"/>
       <c r="B254" s="31" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D254" s="24"/>
       <c r="E254" s="24"/>
       <c r="F254" s="31" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G254" s="32" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H254" s="24"/>
       <c r="I254" s="24"/>
@@ -12700,15 +12750,15 @@
     <row r="255" ht="14.3" spans="1:11">
       <c r="A255" s="24"/>
       <c r="B255" s="33" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C255" s="34" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D255" s="24"/>
       <c r="E255" s="24"/>
       <c r="F255" s="33" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G255" s="34"/>
       <c r="H255" s="24"/>
@@ -12722,7 +12772,7 @@
       <c r="D256" s="24"/>
       <c r="E256" s="24"/>
       <c r="F256" s="33" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="G256" s="34"/>
       <c r="H256" s="24"/>
@@ -12737,7 +12787,7 @@
       <c r="D257" s="24"/>
       <c r="E257" s="24"/>
       <c r="F257" s="33" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="G257" s="34"/>
       <c r="H257" s="24"/>
@@ -12761,13 +12811,13 @@
     <row r="259" ht="14.3" spans="1:11">
       <c r="A259" s="24"/>
       <c r="B259" s="46" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C259" s="24"/>
       <c r="D259" s="24"/>
       <c r="E259" s="24"/>
       <c r="F259" s="46" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G259" s="24"/>
       <c r="H259" s="24"/>
@@ -12778,18 +12828,18 @@
     <row r="260" ht="14.3" spans="1:11">
       <c r="A260" s="24"/>
       <c r="B260" s="31" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C260" s="32" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D260" s="24"/>
       <c r="E260" s="24"/>
       <c r="F260" s="31" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="G260" s="32" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H260" s="24"/>
       <c r="I260" s="24"/>
@@ -12799,13 +12849,13 @@
     <row r="261" ht="14.3" spans="1:11">
       <c r="A261" s="24"/>
       <c r="B261" s="33" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C261" s="34"/>
       <c r="D261" s="24"/>
       <c r="E261" s="24"/>
       <c r="F261" s="33" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="G261" s="34"/>
       <c r="H261" s="24"/>
@@ -12820,7 +12870,7 @@
       <c r="D262" s="24"/>
       <c r="E262" s="24"/>
       <c r="F262" s="33" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G262" s="34"/>
       <c r="H262" s="24"/>
@@ -12835,7 +12885,7 @@
       <c r="D263" s="24"/>
       <c r="E263" s="24"/>
       <c r="F263" s="33" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="G263" s="34"/>
       <c r="H263" s="24"/>
@@ -12955,7 +13005,7 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="27" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -12976,11 +13026,11 @@
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="28" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="27" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" ht="14.3" spans="1:7">
@@ -13009,7 +13059,7 @@
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="27" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -13020,7 +13070,7 @@
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="27" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -13048,7 +13098,7 @@
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="27" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -13068,7 +13118,7 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="27" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -13094,7 +13144,7 @@
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="27" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -13125,11 +13175,11 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="28" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="27" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" ht="14.3" spans="1:7">
@@ -13153,32 +13203,32 @@
         <v>27</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G19" s="24"/>
     </row>
     <row r="20" ht="14.3" spans="1:7">
       <c r="A20" s="24"/>
       <c r="B20" s="33" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G20" s="24"/>
     </row>
     <row r="21" ht="14.3" spans="1:7">
       <c r="A21" s="24"/>
       <c r="B21" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="24"/>
       <c r="E21" s="27" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -13186,14 +13236,14 @@
     <row r="22" ht="14.3" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="27" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -13219,12 +13269,12 @@
     <row r="25" ht="14.3" spans="1:7">
       <c r="A25" s="24"/>
       <c r="B25" s="26" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="27" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -13235,7 +13285,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -13248,7 +13298,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -13258,10 +13308,10 @@
     <row r="28" ht="14.3" spans="1:7">
       <c r="A28" s="24"/>
       <c r="B28" s="33" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -13271,7 +13321,7 @@
     <row r="29" ht="14.3" spans="1:7">
       <c r="A29" s="24"/>
       <c r="B29" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="24"/>
@@ -13282,10 +13332,10 @@
     <row r="30" ht="14.3" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -13313,7 +13363,7 @@
     <row r="33" ht="14.3" spans="1:7">
       <c r="A33" s="24"/>
       <c r="B33" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -13324,10 +13374,10 @@
     <row r="34" ht="14.3" spans="1:7">
       <c r="A34" s="24"/>
       <c r="B34" s="31" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D34" s="24"/>
       <c r="F34" s="24"/>
@@ -13336,14 +13386,14 @@
     <row r="35" ht="14.3" spans="1:7">
       <c r="A35" s="24"/>
       <c r="B35" s="33" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="27" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -13354,7 +13404,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D36" s="24"/>
       <c r="F36" s="24"/>
@@ -13363,7 +13413,7 @@
     <row r="37" ht="14.3" spans="1:7">
       <c r="A37" s="24"/>
       <c r="B37" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C37" s="34"/>
       <c r="D37" s="24"/>
@@ -13374,10 +13424,10 @@
     <row r="38" ht="14.3" spans="1:7">
       <c r="A38" s="24"/>
       <c r="B38" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -13405,7 +13455,7 @@
     <row r="41" ht="14.3" spans="1:7">
       <c r="A41" s="24"/>
       <c r="B41" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -13416,10 +13466,10 @@
     <row r="42" ht="14.3" spans="1:7">
       <c r="A42" s="24"/>
       <c r="B42" s="31" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -13429,14 +13479,14 @@
     <row r="43" ht="14.3" spans="1:7">
       <c r="A43" s="24"/>
       <c r="B43" s="33" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="27" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
@@ -13447,7 +13497,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -13457,7 +13507,7 @@
     <row r="45" ht="14.3" spans="1:7">
       <c r="A45" s="24"/>
       <c r="B45" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C45" s="34"/>
       <c r="D45" s="24"/>
@@ -13468,10 +13518,10 @@
     <row r="46" ht="14.3" spans="1:7">
       <c r="A46" s="24"/>
       <c r="B46" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
@@ -13498,15 +13548,15 @@
     </row>
     <row r="49" ht="14.3" spans="1:7">
       <c r="A49" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
@@ -13514,14 +13564,14 @@
     <row r="50" ht="14.3" spans="1:7">
       <c r="A50" s="24"/>
       <c r="B50" s="31" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="27" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
@@ -13529,7 +13579,7 @@
     <row r="51" ht="14.3" spans="1:7">
       <c r="A51" s="24"/>
       <c r="B51" s="33" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C51" s="34"/>
       <c r="D51" s="24"/>
@@ -13543,7 +13593,7 @@
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="27" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
@@ -13560,7 +13610,7 @@
     <row r="54" ht="14.3" spans="1:7">
       <c r="A54" s="24"/>
       <c r="B54" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
@@ -13571,10 +13621,10 @@
     <row r="55" ht="14.3" spans="1:7">
       <c r="A55" s="24"/>
       <c r="B55" s="31" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
@@ -13584,7 +13634,7 @@
     <row r="56" ht="14.3" spans="1:7">
       <c r="A56" s="24"/>
       <c r="B56" s="33" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C56" s="34"/>
       <c r="D56" s="24"/>
@@ -13613,7 +13663,7 @@
     <row r="59" ht="14.3" spans="1:7">
       <c r="A59" s="24"/>
       <c r="B59" s="26" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -13624,10 +13674,10 @@
     <row r="60" ht="14.3" spans="1:7">
       <c r="A60" s="24"/>
       <c r="B60" s="31" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -13637,7 +13687,7 @@
     <row r="61" ht="14.3" spans="1:7">
       <c r="A61" s="24"/>
       <c r="B61" s="33" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C61" s="34"/>
       <c r="D61" s="24"/>
@@ -13647,12 +13697,12 @@
     <row r="62" ht="14.3" spans="1:7">
       <c r="A62" s="24"/>
       <c r="B62" s="33" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C62" s="34"/>
       <c r="D62" s="24"/>
       <c r="E62" s="27" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
@@ -13660,7 +13710,7 @@
     <row r="63" ht="14.3" spans="1:7">
       <c r="A63" s="24"/>
       <c r="B63" s="33" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C63" s="34"/>
       <c r="D63" s="24"/>
@@ -13689,7 +13739,7 @@
     <row r="66" ht="14.3" spans="1:7">
       <c r="A66" s="24"/>
       <c r="B66" s="26" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
@@ -13703,7 +13753,7 @@
         <v>15</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
@@ -13713,14 +13763,14 @@
     <row r="68" ht="14.3" spans="1:7">
       <c r="A68" s="24"/>
       <c r="B68" s="33" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="27" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
@@ -13728,12 +13778,12 @@
     <row r="69" ht="14.3" spans="1:7">
       <c r="A69" s="24"/>
       <c r="B69" s="33" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C69" s="34"/>
       <c r="D69" s="24"/>
       <c r="E69" s="27" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
@@ -13741,10 +13791,10 @@
     <row r="70" ht="14.3" spans="1:7">
       <c r="A70" s="24"/>
       <c r="B70" s="33" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
@@ -13754,7 +13804,7 @@
     <row r="71" ht="14.3" spans="1:7">
       <c r="A71" s="24"/>
       <c r="B71" s="33" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C71" s="34"/>
       <c r="D71" s="24"/>
@@ -13783,7 +13833,7 @@
     <row r="74" ht="14.3" spans="1:7">
       <c r="A74" s="24"/>
       <c r="B74" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
@@ -13797,7 +13847,7 @@
         <v>15</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
@@ -13807,10 +13857,10 @@
     <row r="76" ht="14.3" spans="1:7">
       <c r="A76" s="24"/>
       <c r="B76" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -13820,7 +13870,7 @@
     <row r="77" ht="14.3" spans="1:7">
       <c r="A77" s="24"/>
       <c r="B77" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C77" s="34"/>
       <c r="D77" s="24"/>
@@ -13849,7 +13899,7 @@
     <row r="80" ht="14.3" spans="1:7">
       <c r="A80" s="24"/>
       <c r="B80" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
@@ -13863,7 +13913,7 @@
         <v>15</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
@@ -13873,10 +13923,10 @@
     <row r="82" ht="14.3" spans="1:7">
       <c r="A82" s="24"/>
       <c r="B82" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
@@ -13886,7 +13936,7 @@
     <row r="83" ht="14.3" spans="1:7">
       <c r="A83" s="24"/>
       <c r="B83" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C83" s="34"/>
       <c r="D83" s="24"/>
@@ -13915,7 +13965,7 @@
     <row r="86" ht="14.3" spans="1:7">
       <c r="A86" s="24"/>
       <c r="B86" s="26" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
@@ -13929,7 +13979,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
@@ -13939,14 +13989,14 @@
     <row r="88" ht="14.3" spans="1:7">
       <c r="A88" s="24"/>
       <c r="B88" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D88" s="24"/>
       <c r="E88" s="27" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
@@ -13954,7 +14004,7 @@
     <row r="89" ht="14.3" spans="1:7">
       <c r="A89" s="24"/>
       <c r="B89" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C89" s="34"/>
       <c r="D89" s="24"/>
@@ -13983,7 +14033,7 @@
     <row r="92" ht="14.3" spans="1:7">
       <c r="A92" s="24"/>
       <c r="B92" s="26" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
@@ -13997,7 +14047,7 @@
         <v>15</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
@@ -14007,14 +14057,14 @@
     <row r="94" ht="14.3" spans="1:7">
       <c r="A94" s="24"/>
       <c r="B94" s="33" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D94" s="24"/>
       <c r="E94" s="27" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="F94" s="24"/>
       <c r="G94" s="24"/>
@@ -14022,7 +14072,7 @@
     <row r="95" ht="14.3" spans="1:7">
       <c r="A95" s="24"/>
       <c r="B95" s="33" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C95" s="34"/>
       <c r="D95" s="24"/>
@@ -14033,10 +14083,10 @@
     <row r="96" ht="14.3" spans="1:7">
       <c r="A96" s="24"/>
       <c r="B96" s="33" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
@@ -14046,7 +14096,7 @@
     <row r="97" ht="14.3" spans="1:7">
       <c r="A97" s="24"/>
       <c r="B97" s="33" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C97" s="34"/>
       <c r="D97" s="24"/>
@@ -14075,7 +14125,7 @@
     <row r="100" ht="14.3" spans="1:7">
       <c r="A100" s="24"/>
       <c r="B100" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
@@ -14089,7 +14139,7 @@
         <v>15</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
@@ -14099,10 +14149,10 @@
     <row r="102" ht="14.3" spans="1:7">
       <c r="A102" s="24"/>
       <c r="B102" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
@@ -14112,7 +14162,7 @@
     <row r="103" ht="14.3" spans="1:7">
       <c r="A103" s="24"/>
       <c r="B103" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C103" s="34"/>
       <c r="D103" s="24"/>
@@ -14141,7 +14191,7 @@
     <row r="106" ht="14.3" spans="1:7">
       <c r="A106" s="24"/>
       <c r="B106" s="26" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
@@ -14155,7 +14205,7 @@
         <v>15</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
@@ -14165,10 +14215,10 @@
     <row r="108" ht="14.3" spans="1:7">
       <c r="A108" s="24"/>
       <c r="B108" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D108" s="24"/>
       <c r="E108" s="24"/>
@@ -14178,7 +14228,7 @@
     <row r="109" ht="14.3" spans="1:7">
       <c r="A109" s="24"/>
       <c r="B109" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C109" s="34"/>
       <c r="D109" s="24"/>
@@ -14189,10 +14239,10 @@
     <row r="110" ht="14.3" spans="1:7">
       <c r="A110" s="24"/>
       <c r="B110" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
@@ -14202,7 +14252,7 @@
     <row r="111" ht="14.3" spans="1:7">
       <c r="A111" s="24"/>
       <c r="B111" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C111" s="34"/>
       <c r="D111" s="24"/>
@@ -14231,7 +14281,7 @@
     <row r="114" ht="14.3" spans="1:7">
       <c r="A114" s="24"/>
       <c r="B114" s="26" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
@@ -14245,7 +14295,7 @@
         <v>15</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D115" s="24"/>
       <c r="E115" s="24"/>
@@ -14255,10 +14305,10 @@
     <row r="116" ht="14.3" spans="1:7">
       <c r="A116" s="24"/>
       <c r="B116" s="33" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D116" s="24"/>
       <c r="E116" s="24"/>
@@ -14268,7 +14318,7 @@
     <row r="117" ht="14.3" spans="1:7">
       <c r="A117" s="24"/>
       <c r="B117" s="33" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C117" s="34"/>
       <c r="D117" s="24"/>
@@ -14279,10 +14329,10 @@
     <row r="118" ht="14.3" spans="1:7">
       <c r="A118" s="24"/>
       <c r="B118" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
@@ -14292,7 +14342,7 @@
     <row r="119" ht="14.3" spans="1:7">
       <c r="A119" s="24"/>
       <c r="B119" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C119" s="34"/>
       <c r="D119" s="24"/>
@@ -14303,10 +14353,10 @@
     <row r="120" ht="14.3" spans="1:7">
       <c r="A120" s="24"/>
       <c r="B120" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D120" s="24"/>
       <c r="E120" s="24"/>
@@ -14316,7 +14366,7 @@
     <row r="121" ht="14.3" spans="1:7">
       <c r="A121" s="24"/>
       <c r="B121" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C121" s="34"/>
       <c r="D121" s="24"/>
@@ -14345,7 +14395,7 @@
     <row r="124" ht="14.3" spans="1:7">
       <c r="A124" s="24"/>
       <c r="B124" s="26" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
@@ -14359,7 +14409,7 @@
         <v>15</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D125" s="24"/>
       <c r="E125" s="24"/>
@@ -14369,10 +14419,10 @@
     <row r="126" ht="14.3" spans="1:7">
       <c r="A126" s="24"/>
       <c r="B126" s="33" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D126" s="24"/>
       <c r="E126" s="24"/>
@@ -14382,7 +14432,7 @@
     <row r="127" ht="14.3" spans="1:7">
       <c r="A127" s="24"/>
       <c r="B127" s="33" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C127" s="34"/>
       <c r="D127" s="24"/>
@@ -14393,10 +14443,10 @@
     <row r="128" ht="14.3" spans="1:7">
       <c r="A128" s="24"/>
       <c r="B128" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D128" s="24"/>
       <c r="E128" s="24"/>
@@ -14406,7 +14456,7 @@
     <row r="129" ht="14.3" spans="1:7">
       <c r="A129" s="24"/>
       <c r="B129" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C129" s="34"/>
       <c r="D129" s="24"/>
@@ -14417,10 +14467,10 @@
     <row r="130" ht="14.3" spans="1:7">
       <c r="A130" s="24"/>
       <c r="B130" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C130" s="34" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D130" s="24"/>
       <c r="E130" s="24"/>
@@ -14430,7 +14480,7 @@
     <row r="131" ht="14.3" spans="1:7">
       <c r="A131" s="24"/>
       <c r="B131" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C131" s="34"/>
       <c r="D131" s="24"/>
@@ -14459,7 +14509,7 @@
     <row r="134" ht="14.3" spans="1:7">
       <c r="A134" s="24"/>
       <c r="B134" s="26" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
@@ -14473,7 +14523,7 @@
         <v>15</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D135" s="24"/>
       <c r="E135" s="24"/>
@@ -14483,10 +14533,10 @@
     <row r="136" ht="14.3" spans="1:7">
       <c r="A136" s="24"/>
       <c r="B136" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D136" s="24"/>
       <c r="E136" s="24"/>
@@ -14496,7 +14546,7 @@
     <row r="137" ht="14.3" spans="1:7">
       <c r="A137" s="24"/>
       <c r="B137" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C137" s="34"/>
       <c r="D137" s="24"/>
@@ -14507,10 +14557,10 @@
     <row r="138" ht="14.3" spans="1:7">
       <c r="A138" s="24"/>
       <c r="B138" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D138" s="24"/>
       <c r="E138" s="24"/>
@@ -14520,7 +14570,7 @@
     <row r="139" ht="14.3" spans="1:7">
       <c r="A139" s="24"/>
       <c r="B139" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C139" s="34"/>
       <c r="D139" s="24"/>
@@ -14549,7 +14599,7 @@
     <row r="142" ht="14.3" spans="1:7">
       <c r="A142" s="24"/>
       <c r="B142" s="26" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
@@ -14563,7 +14613,7 @@
         <v>15</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D143" s="24"/>
       <c r="E143" s="24"/>
@@ -14573,10 +14623,10 @@
     <row r="144" ht="14.3" spans="1:7">
       <c r="A144" s="24"/>
       <c r="B144" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D144" s="24"/>
       <c r="E144" s="24"/>
@@ -14586,7 +14636,7 @@
     <row r="145" ht="14.3" spans="1:7">
       <c r="A145" s="24"/>
       <c r="B145" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C145" s="34"/>
       <c r="D145" s="24"/>
@@ -14597,10 +14647,10 @@
     <row r="146" ht="14.3" spans="1:7">
       <c r="A146" s="24"/>
       <c r="B146" s="33" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D146" s="24"/>
       <c r="E146" s="24"/>
@@ -14610,7 +14660,7 @@
     <row r="147" ht="14.3" spans="1:7">
       <c r="A147" s="24"/>
       <c r="B147" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C147" s="34"/>
       <c r="D147" s="24"/>
@@ -14639,7 +14689,7 @@
     <row r="150" ht="14.3" spans="1:7">
       <c r="A150" s="24"/>
       <c r="B150" s="26" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C150" s="24"/>
       <c r="D150" s="24"/>
@@ -14653,7 +14703,7 @@
         <v>15</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D151" s="24"/>
       <c r="E151" s="24"/>
@@ -14663,10 +14713,10 @@
     <row r="152" ht="14.3" spans="1:7">
       <c r="A152" s="24"/>
       <c r="B152" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D152" s="24"/>
       <c r="E152" s="24"/>
@@ -14676,7 +14726,7 @@
     <row r="153" ht="14.3" spans="1:7">
       <c r="A153" s="24"/>
       <c r="B153" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C153" s="34"/>
       <c r="D153" s="24"/>
@@ -14705,7 +14755,7 @@
     <row r="156" ht="14.3" spans="1:7">
       <c r="A156" s="24"/>
       <c r="B156" s="26" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C156" s="24"/>
       <c r="D156" s="24"/>
@@ -14719,7 +14769,7 @@
         <v>15</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D157" s="24"/>
       <c r="E157" s="24"/>
@@ -14729,14 +14779,14 @@
     <row r="158" ht="14.3" spans="1:7">
       <c r="A158" s="24"/>
       <c r="B158" s="33" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D158" s="24"/>
       <c r="E158" s="27" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F158" s="24"/>
       <c r="G158" s="24"/>
@@ -14744,7 +14794,7 @@
     <row r="159" ht="14.3" spans="1:7">
       <c r="A159" s="24"/>
       <c r="B159" s="33" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C159" s="34"/>
       <c r="D159" s="24"/>
@@ -14773,7 +14823,7 @@
     <row r="162" ht="14.3" spans="1:7">
       <c r="A162" s="24"/>
       <c r="B162" s="26" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C162" s="24"/>
       <c r="D162" s="24"/>
@@ -14787,7 +14837,7 @@
         <v>10</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D163" s="24"/>
       <c r="E163" s="24"/>
@@ -14797,10 +14847,10 @@
     <row r="164" ht="14.3" spans="1:7">
       <c r="A164" s="24"/>
       <c r="B164" s="33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C164" s="34" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D164" s="24"/>
       <c r="E164" s="24"/>
@@ -14810,7 +14860,7 @@
     <row r="165" ht="14.3" spans="1:7">
       <c r="A165" s="24"/>
       <c r="B165" s="33" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C165" s="34"/>
       <c r="D165" s="24"/>
@@ -14839,7 +14889,7 @@
     <row r="168" ht="14.3" spans="1:7">
       <c r="A168" s="24"/>
       <c r="B168" s="26" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C168" s="24"/>
       <c r="D168" s="24"/>
@@ -14853,7 +14903,7 @@
         <v>10</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D169" s="24"/>
       <c r="E169" s="24"/>
@@ -14863,14 +14913,14 @@
     <row r="170" ht="14.3" spans="1:7">
       <c r="A170" s="24"/>
       <c r="B170" s="33" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D170" s="24"/>
       <c r="E170" s="27" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F170" s="24"/>
       <c r="G170" s="24"/>
@@ -14878,7 +14928,7 @@
     <row r="171" ht="14.3" spans="1:7">
       <c r="A171" s="24"/>
       <c r="B171" s="33" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C171" s="34"/>
       <c r="D171" s="24"/>
@@ -14906,10 +14956,10 @@
     </row>
     <row r="174" ht="14.3" spans="1:7">
       <c r="A174" s="36" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C174" s="24"/>
       <c r="D174" s="24"/>
@@ -14923,7 +14973,7 @@
         <v>15</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D175" s="24"/>
       <c r="E175" s="24"/>
@@ -14933,14 +14983,14 @@
     <row r="176" ht="14.3" spans="1:7">
       <c r="A176" s="24"/>
       <c r="B176" s="33" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C176" s="34" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D176" s="24"/>
       <c r="E176" s="27" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="F176" s="24"/>
       <c r="G176" s="24"/>
@@ -14948,7 +14998,7 @@
     <row r="177" ht="14.3" spans="1:7">
       <c r="A177" s="24"/>
       <c r="B177" s="33" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C177" s="34"/>
       <c r="D177" s="24"/>
@@ -14977,7 +15027,7 @@
     <row r="180" ht="14.3" spans="1:7">
       <c r="A180" s="24"/>
       <c r="B180" s="26" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C180" s="24"/>
       <c r="D180" s="24"/>
@@ -14991,7 +15041,7 @@
         <v>34</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D181" s="24"/>
       <c r="E181" s="24"/>
@@ -15032,7 +15082,7 @@
         <v>28</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C185" s="38"/>
       <c r="D185" s="24"/>
@@ -15043,10 +15093,10 @@
     <row r="186" ht="14.3" spans="1:7">
       <c r="A186" s="24"/>
       <c r="B186" s="31" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D186" s="24"/>
       <c r="E186" s="24"/>
@@ -15056,7 +15106,7 @@
     <row r="187" ht="14.3" spans="1:7">
       <c r="A187" s="24"/>
       <c r="B187" s="33" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C187" s="34"/>
       <c r="D187" s="24"/>
@@ -15067,10 +15117,10 @@
     <row r="188" ht="14.3" spans="1:7">
       <c r="A188" s="24"/>
       <c r="B188" s="33" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C188" s="34" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D188" s="24"/>
       <c r="E188" s="24"/>
@@ -15080,7 +15130,7 @@
     <row r="189" ht="14.3" spans="1:7">
       <c r="A189" s="24"/>
       <c r="B189" s="33" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C189" s="34"/>
       <c r="D189" s="24"/>
@@ -15109,7 +15159,7 @@
     <row r="192" ht="14.3" spans="1:7">
       <c r="A192" s="24"/>
       <c r="B192" s="26" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C192" s="38"/>
       <c r="D192" s="24"/>
@@ -15123,7 +15173,7 @@
         <v>15</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D193" s="24"/>
       <c r="E193" s="24"/>
@@ -15133,10 +15183,10 @@
     <row r="194" ht="14.3" spans="1:7">
       <c r="A194" s="24"/>
       <c r="B194" s="33" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C194" s="34" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D194" s="24"/>
       <c r="E194" s="24"/>
@@ -15146,7 +15196,7 @@
     <row r="195" ht="14.3" spans="1:7">
       <c r="A195" s="24"/>
       <c r="B195" s="33" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C195" s="34"/>
       <c r="D195" s="24"/>
@@ -15157,10 +15207,10 @@
     <row r="196" ht="14.3" spans="1:7">
       <c r="A196" s="24"/>
       <c r="B196" s="33" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C196" s="34" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D196" s="24"/>
       <c r="E196" s="24"/>
@@ -15170,7 +15220,7 @@
     <row r="197" ht="14.3" spans="1:7">
       <c r="A197" s="24"/>
       <c r="B197" s="33" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C197" s="34"/>
       <c r="D197" s="24"/>
@@ -15199,7 +15249,7 @@
     <row r="200" ht="14.3" spans="1:7">
       <c r="A200" s="24"/>
       <c r="B200" s="26" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="24"/>
@@ -15213,7 +15263,7 @@
         <v>15</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="24"/>
@@ -15223,10 +15273,10 @@
     <row r="202" ht="14.3" spans="1:7">
       <c r="A202" s="24"/>
       <c r="B202" s="33" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C202" s="34" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D202" s="24"/>
       <c r="E202" s="24"/>
@@ -15236,7 +15286,7 @@
     <row r="203" ht="14.3" spans="1:7">
       <c r="A203" s="24"/>
       <c r="B203" s="33" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C203" s="34"/>
       <c r="D203" s="24"/>
@@ -15247,10 +15297,10 @@
     <row r="204" ht="14.3" spans="1:7">
       <c r="A204" s="24"/>
       <c r="B204" s="33" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C204" s="34" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D204" s="24"/>
       <c r="E204" s="24"/>
@@ -15260,7 +15310,7 @@
     <row r="205" ht="14.3" spans="1:7">
       <c r="A205" s="24"/>
       <c r="B205" s="33" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C205" s="34"/>
       <c r="D205" s="24"/>
@@ -15294,11 +15344,11 @@
       <c r="C208" s="24"/>
       <c r="D208" s="24"/>
       <c r="E208" s="39" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="F208" s="40"/>
       <c r="G208" s="27" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="209" ht="14.3" spans="1:7">
@@ -15335,7 +15385,7 @@
     <row r="212" ht="14.3" spans="1:7">
       <c r="A212" s="24"/>
       <c r="B212" s="26" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C212" s="24"/>
       <c r="D212" s="24"/>
@@ -15377,7 +15427,7 @@
     <row r="216" ht="14.3" spans="1:7">
       <c r="A216" s="24"/>
       <c r="B216" s="26" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C216" s="24"/>
       <c r="D216" s="24"/>
@@ -15419,7 +15469,7 @@
     <row r="220" ht="14.3" spans="1:7">
       <c r="A220" s="24"/>
       <c r="B220" s="26" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C220" s="24"/>
       <c r="D220" s="24"/>
@@ -15433,7 +15483,7 @@
         <v>15</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D221" s="24"/>
       <c r="E221" s="24"/>
@@ -15443,14 +15493,14 @@
     <row r="222" ht="14.3" spans="1:7">
       <c r="A222" s="24"/>
       <c r="B222" s="33" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C222" s="34" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="D222" s="24"/>
       <c r="E222" s="27" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F222" s="24"/>
       <c r="G222" s="24"/>
@@ -15458,12 +15508,12 @@
     <row r="223" ht="14.3" spans="1:7">
       <c r="A223" s="24"/>
       <c r="B223" s="33" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C223" s="34"/>
       <c r="D223" s="24"/>
       <c r="E223" s="27" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="F223" s="24"/>
       <c r="G223" s="24"/>
@@ -15474,7 +15524,7 @@
       <c r="C224" s="24"/>
       <c r="D224" s="24"/>
       <c r="E224" s="27" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="F224" s="24"/>
       <c r="G224" s="24"/>
@@ -15485,7 +15535,7 @@
       <c r="C225" s="24"/>
       <c r="D225" s="24"/>
       <c r="E225" s="27" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="F225" s="24"/>
       <c r="G225" s="24"/>
@@ -15509,7 +15559,7 @@
         <v>34</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D227" s="24"/>
       <c r="E227" s="24"/>
@@ -15548,7 +15598,7 @@
     <row r="231" ht="14.3" spans="1:7">
       <c r="A231" s="24"/>
       <c r="B231" s="26" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C231" s="24"/>
       <c r="D231" s="24"/>
@@ -15562,7 +15612,7 @@
         <v>34</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D232" s="24"/>
       <c r="E232" s="24"/>
@@ -15601,7 +15651,7 @@
     <row r="236" ht="14.3" spans="1:7">
       <c r="A236" s="24"/>
       <c r="B236" s="26" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C236" s="24"/>
       <c r="D236" s="24"/>
@@ -15615,7 +15665,7 @@
         <v>34</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D237" s="24"/>
       <c r="E237" s="24"/>
@@ -15706,10 +15756,10 @@
     </row>
     <row r="246" ht="14.3" spans="1:7">
       <c r="A246" s="36" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B246" s="41" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C246" s="24"/>
       <c r="D246" s="24"/>
@@ -15723,7 +15773,7 @@
         <v>15</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D247" s="24"/>
       <c r="E247" s="24"/>
@@ -15733,7 +15783,7 @@
     <row r="248" ht="14.3" spans="1:7">
       <c r="A248" s="24"/>
       <c r="B248" s="33" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C248" s="34"/>
       <c r="D248" s="24"/>
@@ -15744,7 +15794,7 @@
     <row r="249" ht="14.3" spans="1:7">
       <c r="A249" s="24"/>
       <c r="B249" s="33" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C249" s="34"/>
       <c r="D249" s="24"/>
@@ -15773,7 +15823,7 @@
     <row r="252" ht="14.3" spans="1:7">
       <c r="A252" s="24"/>
       <c r="B252" s="41" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C252" s="24"/>
       <c r="D252" s="24"/>
@@ -15784,7 +15834,7 @@
     <row r="253" ht="14.3" spans="1:7">
       <c r="A253" s="24"/>
       <c r="B253" s="31" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C253" s="32"/>
       <c r="D253" s="24"/>
@@ -15795,7 +15845,7 @@
     <row r="254" ht="14.3" spans="1:7">
       <c r="A254" s="24"/>
       <c r="B254" s="33" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C254" s="34"/>
       <c r="D254" s="24"/>
@@ -15824,7 +15874,7 @@
     <row r="257" ht="14.3" spans="1:7">
       <c r="A257" s="24"/>
       <c r="B257" s="41" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C257" s="24"/>
       <c r="D257" s="24"/>
@@ -15835,14 +15885,14 @@
     <row r="258" ht="14.3" spans="1:7">
       <c r="A258" s="24"/>
       <c r="B258" s="31" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D258" s="24"/>
       <c r="E258" s="27" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="F258" s="24"/>
       <c r="G258" s="24"/>
@@ -15850,7 +15900,7 @@
     <row r="259" ht="14.3" spans="1:7">
       <c r="A259" s="24"/>
       <c r="B259" s="33" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="C259" s="34"/>
       <c r="D259" s="24"/>
@@ -15861,7 +15911,7 @@
     <row r="260" ht="14.3" spans="1:7">
       <c r="A260" s="24"/>
       <c r="B260" s="33" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C260" s="34"/>
       <c r="D260" s="24"/>
@@ -15872,7 +15922,7 @@
     <row r="261" ht="14.3" spans="1:7">
       <c r="A261" s="24"/>
       <c r="B261" s="33" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C261" s="34"/>
       <c r="D261" s="24"/>
@@ -15901,7 +15951,7 @@
     <row r="264" ht="14.3" spans="1:7">
       <c r="A264" s="24"/>
       <c r="B264" s="41" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C264" s="24"/>
       <c r="D264" s="24"/>
@@ -15912,10 +15962,10 @@
     <row r="265" ht="14.3" spans="1:7">
       <c r="A265" s="24"/>
       <c r="B265" s="31" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D265" s="24"/>
       <c r="E265" s="24"/>
@@ -15925,7 +15975,7 @@
     <row r="266" ht="14.3" spans="1:7">
       <c r="A266" s="24"/>
       <c r="B266" s="33" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C266" s="34"/>
       <c r="D266" s="24"/>
@@ -15936,7 +15986,7 @@
     <row r="267" ht="14.3" spans="1:7">
       <c r="A267" s="24"/>
       <c r="B267" s="33" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C267" s="34"/>
       <c r="D267" s="24"/>
@@ -15947,7 +15997,7 @@
     <row r="268" ht="14.3" spans="1:7">
       <c r="A268" s="24"/>
       <c r="B268" s="33" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C268" s="34"/>
       <c r="D268" s="24"/>
@@ -15976,7 +16026,7 @@
     <row r="271" ht="14.3" spans="1:7">
       <c r="A271" s="24"/>
       <c r="B271" s="41" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C271" s="24"/>
       <c r="D271" s="24"/>
@@ -15987,14 +16037,14 @@
     <row r="272" ht="14.3" spans="1:7">
       <c r="A272" s="24"/>
       <c r="B272" s="31" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D272" s="24"/>
       <c r="E272" s="27" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="F272" s="24"/>
       <c r="G272" s="24"/>
@@ -16002,7 +16052,7 @@
     <row r="273" ht="14.3" spans="1:7">
       <c r="A273" s="24"/>
       <c r="B273" s="33" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C273" s="34"/>
       <c r="D273" s="24"/>
@@ -16013,7 +16063,7 @@
     <row r="274" ht="14.3" spans="1:7">
       <c r="A274" s="24"/>
       <c r="B274" s="33" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C274" s="34"/>
       <c r="D274" s="24"/>
@@ -16024,7 +16074,7 @@
     <row r="275" ht="14.3" spans="1:7">
       <c r="A275" s="24"/>
       <c r="B275" s="33" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C275" s="34"/>
       <c r="D275" s="24"/>
@@ -16098,17 +16148,17 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -16125,7 +16175,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7">
@@ -16138,10 +16188,10 @@
         <v>75</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>78</v>
@@ -16156,7 +16206,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
@@ -16177,10 +16227,10 @@
         <v>79</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -16196,37 +16246,37 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5">
         <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="21"/>
@@ -16241,34 +16291,34 @@
       <c r="C5" s="14"/>
       <c r="D5" s="3"/>
       <c r="E5" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="23"/>
@@ -16280,16 +16330,16 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -16315,25 +16365,25 @@
         <v>7</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -16381,25 +16431,25 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -16415,7 +16465,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -16424,16 +16474,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -16451,16 +16501,16 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="6" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D11" s="16">
         <v>2</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -16477,16 +16527,16 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="6" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -16503,7 +16553,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="6" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D13" s="16">
         <v>7</v>
@@ -16518,13 +16568,13 @@
         <v>59</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>67</v>
@@ -16535,7 +16585,7 @@
     </row>
     <row r="14" spans="3:14">
       <c r="C14" s="17" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D14" s="18">
         <v>63</v>
@@ -16566,7 +16616,7 @@
     </row>
     <row r="16" spans="3:5">
       <c r="C16" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
